--- a/database/industries/khodro/khetrak/product/monthly_seprated.xlsx
+++ b/database/industries/khodro/khetrak/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khetrak\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472C9594-C699-41FA-B06D-B1285D5F391C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -184,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -276,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +464,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -475,7 +476,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -522,6 +523,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -557,6 +575,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1442,101 +1477,101 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>3818</v>
+      </c>
+      <c r="X11" s="11">
+        <v>2698</v>
       </c>
       <c r="Y11" s="11">
-        <v>3818</v>
+        <v>3150</v>
       </c>
       <c r="Z11" s="11">
-        <v>2698</v>
+        <v>3357</v>
       </c>
       <c r="AA11" s="11">
-        <v>3150</v>
+        <v>3248</v>
       </c>
       <c r="AB11" s="11">
-        <v>3357</v>
+        <v>3697</v>
       </c>
       <c r="AC11" s="11">
-        <v>3248</v>
+        <v>3598</v>
       </c>
       <c r="AD11" s="11">
-        <v>3697</v>
+        <v>3531</v>
       </c>
       <c r="AE11" s="11">
-        <v>3598</v>
+        <v>3022</v>
       </c>
       <c r="AF11" s="11">
-        <v>3531</v>
+        <v>2518</v>
       </c>
       <c r="AG11" s="11">
-        <v>3022</v>
+        <v>2558</v>
       </c>
       <c r="AH11" s="11">
-        <v>2518</v>
+        <v>3110</v>
       </c>
       <c r="AI11" s="11">
-        <v>2558</v>
+        <v>3567</v>
       </c>
       <c r="AJ11" s="11">
-        <v>3110</v>
+        <v>2789</v>
       </c>
       <c r="AK11" s="11">
-        <v>3567</v>
+        <v>3902</v>
       </c>
       <c r="AL11" s="11">
-        <v>2789</v>
+        <v>3107</v>
       </c>
       <c r="AM11" s="11">
-        <v>3902</v>
+        <v>3946</v>
       </c>
       <c r="AN11" s="11">
-        <v>3107</v>
+        <v>3781</v>
       </c>
       <c r="AO11" s="11">
-        <v>3946</v>
+        <v>3416</v>
       </c>
       <c r="AP11" s="11">
-        <v>3781</v>
+        <v>3622</v>
       </c>
       <c r="AQ11" s="11">
-        <v>3416</v>
+        <v>3401</v>
       </c>
       <c r="AR11" s="11">
-        <v>3622</v>
+        <v>2861</v>
       </c>
       <c r="AS11" s="11">
-        <v>3401</v>
+        <v>3723</v>
       </c>
       <c r="AT11" s="11">
-        <v>2861</v>
+        <v>4288</v>
       </c>
       <c r="AU11" s="11">
-        <v>3723</v>
+        <v>4450</v>
       </c>
       <c r="AV11" s="11">
-        <v>4288</v>
+        <v>3380</v>
       </c>
       <c r="AW11" s="11">
-        <v>4450</v>
+        <v>4635</v>
       </c>
       <c r="AX11" s="11">
-        <v>3380</v>
+        <v>4105</v>
       </c>
       <c r="AY11" s="11">
-        <v>4635</v>
+        <v>4997</v>
       </c>
       <c r="AZ11" s="11">
-        <v>4105</v>
+        <v>4770</v>
       </c>
       <c r="BA11" s="11">
-        <v>4997</v>
+        <v>4421</v>
       </c>
       <c r="BB11" s="11">
-        <v>4761</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
@@ -1600,100 +1635,100 @@
         <v>0</v>
       </c>
       <c r="W12" s="13">
-        <v>0</v>
+        <v>3818</v>
       </c>
       <c r="X12" s="13">
-        <v>0</v>
+        <v>2698</v>
       </c>
       <c r="Y12" s="13">
-        <v>3818</v>
+        <v>3150</v>
       </c>
       <c r="Z12" s="13">
-        <v>2698</v>
+        <v>3357</v>
       </c>
       <c r="AA12" s="13">
-        <v>3150</v>
+        <v>3248</v>
       </c>
       <c r="AB12" s="13">
-        <v>3357</v>
+        <v>3697</v>
       </c>
       <c r="AC12" s="13">
-        <v>3248</v>
+        <v>3598</v>
       </c>
       <c r="AD12" s="13">
-        <v>3697</v>
+        <v>3531</v>
       </c>
       <c r="AE12" s="13">
-        <v>3598</v>
+        <v>3022</v>
       </c>
       <c r="AF12" s="13">
-        <v>3531</v>
+        <v>2518</v>
       </c>
       <c r="AG12" s="13">
-        <v>3022</v>
+        <v>2558</v>
       </c>
       <c r="AH12" s="13">
-        <v>2518</v>
+        <v>3110</v>
       </c>
       <c r="AI12" s="13">
-        <v>2558</v>
+        <v>3567</v>
       </c>
       <c r="AJ12" s="13">
-        <v>3110</v>
+        <v>2789</v>
       </c>
       <c r="AK12" s="13">
-        <v>3567</v>
+        <v>3902</v>
       </c>
       <c r="AL12" s="13">
-        <v>2789</v>
+        <v>3107</v>
       </c>
       <c r="AM12" s="13">
-        <v>3902</v>
+        <v>3946</v>
       </c>
       <c r="AN12" s="13">
-        <v>3107</v>
+        <v>3781</v>
       </c>
       <c r="AO12" s="13">
-        <v>3946</v>
+        <v>3416</v>
       </c>
       <c r="AP12" s="13">
-        <v>3781</v>
+        <v>3622</v>
       </c>
       <c r="AQ12" s="13">
-        <v>3416</v>
+        <v>3401</v>
       </c>
       <c r="AR12" s="13">
-        <v>3622</v>
+        <v>2861</v>
       </c>
       <c r="AS12" s="13">
-        <v>3401</v>
+        <v>3723</v>
       </c>
       <c r="AT12" s="13">
-        <v>2861</v>
+        <v>4288</v>
       </c>
       <c r="AU12" s="13">
-        <v>3723</v>
+        <v>4450</v>
       </c>
       <c r="AV12" s="13">
-        <v>4288</v>
+        <v>3380</v>
       </c>
       <c r="AW12" s="13">
-        <v>4450</v>
+        <v>4635</v>
       </c>
       <c r="AX12" s="13">
-        <v>3380</v>
+        <v>4105</v>
       </c>
       <c r="AY12" s="13">
-        <v>4635</v>
+        <v>4997</v>
       </c>
       <c r="AZ12" s="13">
-        <v>4105</v>
+        <v>4770</v>
       </c>
       <c r="BA12" s="13">
-        <v>4997</v>
+        <v>4421</v>
       </c>
       <c r="BB12" s="13">
-        <v>4761</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
@@ -1815,101 +1850,101 @@
       <c r="V14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>58</v>
+      <c r="W14" s="11">
+        <v>320</v>
+      </c>
+      <c r="X14" s="11">
+        <v>572</v>
       </c>
       <c r="Y14" s="11">
-        <v>320</v>
+        <v>711</v>
       </c>
       <c r="Z14" s="11">
-        <v>572</v>
+        <v>765</v>
       </c>
       <c r="AA14" s="11">
-        <v>711</v>
+        <v>914</v>
       </c>
       <c r="AB14" s="11">
-        <v>765</v>
+        <v>708</v>
       </c>
       <c r="AC14" s="11">
-        <v>914</v>
+        <v>841</v>
       </c>
       <c r="AD14" s="11">
-        <v>708</v>
+        <v>1318</v>
       </c>
       <c r="AE14" s="11">
-        <v>841</v>
+        <v>1078</v>
       </c>
       <c r="AF14" s="11">
-        <v>1318</v>
+        <v>958</v>
       </c>
       <c r="AG14" s="11">
-        <v>1078</v>
+        <v>1241</v>
       </c>
       <c r="AH14" s="11">
-        <v>958</v>
+        <v>1041</v>
       </c>
       <c r="AI14" s="11">
-        <v>1241</v>
+        <v>1075</v>
       </c>
       <c r="AJ14" s="11">
-        <v>1041</v>
+        <v>448</v>
       </c>
       <c r="AK14" s="11">
-        <v>1075</v>
+        <v>1225</v>
       </c>
       <c r="AL14" s="11">
-        <v>448</v>
+        <v>993</v>
       </c>
       <c r="AM14" s="11">
-        <v>1225</v>
+        <v>775</v>
       </c>
       <c r="AN14" s="11">
-        <v>993</v>
+        <v>946</v>
       </c>
       <c r="AO14" s="11">
-        <v>775</v>
+        <v>858</v>
       </c>
       <c r="AP14" s="11">
-        <v>946</v>
+        <v>1002</v>
       </c>
       <c r="AQ14" s="11">
-        <v>858</v>
+        <v>970</v>
       </c>
       <c r="AR14" s="11">
-        <v>1002</v>
+        <v>699</v>
       </c>
       <c r="AS14" s="11">
-        <v>970</v>
+        <v>937</v>
       </c>
       <c r="AT14" s="11">
-        <v>699</v>
+        <v>963</v>
       </c>
       <c r="AU14" s="11">
-        <v>937</v>
+        <v>799</v>
       </c>
       <c r="AV14" s="11">
-        <v>963</v>
+        <v>690</v>
       </c>
       <c r="AW14" s="11">
-        <v>799</v>
+        <v>905</v>
       </c>
       <c r="AX14" s="11">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="AY14" s="11">
-        <v>905</v>
+        <v>1012</v>
       </c>
       <c r="AZ14" s="11">
-        <v>707</v>
+        <v>1023</v>
       </c>
       <c r="BA14" s="11">
-        <v>1012</v>
+        <v>700</v>
       </c>
       <c r="BB14" s="11">
-        <v>1023</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.25">
@@ -1973,100 +2008,100 @@
         <v>0</v>
       </c>
       <c r="W15" s="13">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="X15" s="13">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="Y15" s="13">
-        <v>320</v>
+        <v>711</v>
       </c>
       <c r="Z15" s="13">
-        <v>572</v>
+        <v>765</v>
       </c>
       <c r="AA15" s="13">
-        <v>711</v>
+        <v>914</v>
       </c>
       <c r="AB15" s="13">
-        <v>765</v>
+        <v>708</v>
       </c>
       <c r="AC15" s="13">
-        <v>914</v>
+        <v>841</v>
       </c>
       <c r="AD15" s="13">
-        <v>708</v>
+        <v>1318</v>
       </c>
       <c r="AE15" s="13">
-        <v>841</v>
+        <v>1078</v>
       </c>
       <c r="AF15" s="13">
-        <v>1318</v>
+        <v>958</v>
       </c>
       <c r="AG15" s="13">
-        <v>1078</v>
+        <v>1241</v>
       </c>
       <c r="AH15" s="13">
-        <v>958</v>
+        <v>1041</v>
       </c>
       <c r="AI15" s="13">
-        <v>1241</v>
+        <v>1075</v>
       </c>
       <c r="AJ15" s="13">
-        <v>1041</v>
+        <v>448</v>
       </c>
       <c r="AK15" s="13">
-        <v>1075</v>
+        <v>1225</v>
       </c>
       <c r="AL15" s="13">
-        <v>448</v>
+        <v>993</v>
       </c>
       <c r="AM15" s="13">
-        <v>1225</v>
+        <v>775</v>
       </c>
       <c r="AN15" s="13">
-        <v>993</v>
+        <v>946</v>
       </c>
       <c r="AO15" s="13">
-        <v>775</v>
+        <v>858</v>
       </c>
       <c r="AP15" s="13">
-        <v>946</v>
+        <v>1002</v>
       </c>
       <c r="AQ15" s="13">
-        <v>858</v>
+        <v>970</v>
       </c>
       <c r="AR15" s="13">
-        <v>1002</v>
+        <v>699</v>
       </c>
       <c r="AS15" s="13">
-        <v>970</v>
+        <v>937</v>
       </c>
       <c r="AT15" s="13">
-        <v>699</v>
+        <v>963</v>
       </c>
       <c r="AU15" s="13">
-        <v>937</v>
+        <v>799</v>
       </c>
       <c r="AV15" s="13">
-        <v>963</v>
+        <v>690</v>
       </c>
       <c r="AW15" s="13">
-        <v>799</v>
+        <v>905</v>
       </c>
       <c r="AX15" s="13">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="AY15" s="13">
-        <v>905</v>
+        <v>1012</v>
       </c>
       <c r="AZ15" s="13">
-        <v>707</v>
+        <v>1023</v>
       </c>
       <c r="BA15" s="13">
-        <v>1012</v>
+        <v>700</v>
       </c>
       <c r="BB15" s="13">
-        <v>1023</v>
+        <v>964</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
@@ -2186,11 +2221,11 @@
       <c r="V17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="17" t="s">
-        <v>58</v>
+      <c r="W17" s="17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="17">
+        <v>0</v>
       </c>
       <c r="Y17" s="17">
         <v>0</v>
@@ -2344,100 +2379,100 @@
         <v>0</v>
       </c>
       <c r="W18" s="13">
-        <v>0</v>
+        <v>4138</v>
       </c>
       <c r="X18" s="13">
-        <v>0</v>
+        <v>3270</v>
       </c>
       <c r="Y18" s="13">
-        <v>4138</v>
+        <v>3861</v>
       </c>
       <c r="Z18" s="13">
-        <v>3270</v>
+        <v>4122</v>
       </c>
       <c r="AA18" s="13">
-        <v>3861</v>
+        <v>4162</v>
       </c>
       <c r="AB18" s="13">
-        <v>4122</v>
+        <v>4405</v>
       </c>
       <c r="AC18" s="13">
-        <v>4162</v>
+        <v>4439</v>
       </c>
       <c r="AD18" s="13">
-        <v>4405</v>
+        <v>4849</v>
       </c>
       <c r="AE18" s="13">
-        <v>4439</v>
+        <v>4100</v>
       </c>
       <c r="AF18" s="13">
-        <v>4849</v>
+        <v>3476</v>
       </c>
       <c r="AG18" s="13">
+        <v>3799</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>4151</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>4642</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>3237</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>5127</v>
+      </c>
+      <c r="AL18" s="13">
         <v>4100</v>
       </c>
-      <c r="AH18" s="13">
-        <v>3476</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>3799</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>4151</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>4642</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>3237</v>
-      </c>
       <c r="AM18" s="13">
-        <v>5127</v>
+        <v>4721</v>
       </c>
       <c r="AN18" s="13">
-        <v>4100</v>
+        <v>4727</v>
       </c>
       <c r="AO18" s="13">
-        <v>4721</v>
+        <v>4274</v>
       </c>
       <c r="AP18" s="13">
-        <v>4727</v>
+        <v>4624</v>
       </c>
       <c r="AQ18" s="13">
-        <v>4274</v>
+        <v>4371</v>
       </c>
       <c r="AR18" s="13">
-        <v>4624</v>
+        <v>3560</v>
       </c>
       <c r="AS18" s="13">
-        <v>4371</v>
+        <v>4660</v>
       </c>
       <c r="AT18" s="13">
-        <v>3560</v>
+        <v>5251</v>
       </c>
       <c r="AU18" s="13">
-        <v>4660</v>
+        <v>5249</v>
       </c>
       <c r="AV18" s="13">
-        <v>5251</v>
+        <v>4070</v>
       </c>
       <c r="AW18" s="13">
-        <v>5249</v>
+        <v>5540</v>
       </c>
       <c r="AX18" s="13">
-        <v>4070</v>
+        <v>4812</v>
       </c>
       <c r="AY18" s="13">
-        <v>5540</v>
+        <v>6009</v>
       </c>
       <c r="AZ18" s="13">
-        <v>4812</v>
+        <v>5793</v>
       </c>
       <c r="BA18" s="13">
-        <v>6009</v>
+        <v>5121</v>
       </c>
       <c r="BB18" s="13">
-        <v>5784</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.25">
@@ -2936,101 +2971,101 @@
       <c r="V25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>58</v>
+      <c r="W25" s="11">
+        <v>3366</v>
+      </c>
+      <c r="X25" s="11">
+        <v>2919</v>
       </c>
       <c r="Y25" s="11">
-        <v>3366</v>
+        <v>3437</v>
       </c>
       <c r="Z25" s="11">
-        <v>2919</v>
+        <v>3279</v>
       </c>
       <c r="AA25" s="11">
-        <v>3437</v>
+        <v>3365</v>
       </c>
       <c r="AB25" s="11">
-        <v>3279</v>
+        <v>4117</v>
       </c>
       <c r="AC25" s="11">
-        <v>3365</v>
+        <v>3967</v>
       </c>
       <c r="AD25" s="11">
-        <v>4117</v>
+        <v>3748</v>
       </c>
       <c r="AE25" s="11">
-        <v>3967</v>
+        <v>3296</v>
       </c>
       <c r="AF25" s="11">
-        <v>3748</v>
+        <v>2276</v>
       </c>
       <c r="AG25" s="11">
-        <v>3296</v>
+        <v>2591</v>
       </c>
       <c r="AH25" s="11">
-        <v>2276</v>
+        <v>3438</v>
       </c>
       <c r="AI25" s="11">
-        <v>2591</v>
+        <v>3491</v>
       </c>
       <c r="AJ25" s="11">
-        <v>3438</v>
+        <v>3076</v>
       </c>
       <c r="AK25" s="11">
-        <v>3491</v>
+        <v>3928</v>
       </c>
       <c r="AL25" s="11">
-        <v>3076</v>
+        <v>3628</v>
       </c>
       <c r="AM25" s="11">
-        <v>3928</v>
+        <v>3730</v>
       </c>
       <c r="AN25" s="11">
-        <v>3628</v>
+        <v>4365</v>
       </c>
       <c r="AO25" s="11">
-        <v>3730</v>
+        <v>3842</v>
       </c>
       <c r="AP25" s="11">
-        <v>4365</v>
+        <v>3745</v>
       </c>
       <c r="AQ25" s="11">
-        <v>3842</v>
+        <v>3283</v>
       </c>
       <c r="AR25" s="11">
-        <v>3745</v>
+        <v>3080</v>
       </c>
       <c r="AS25" s="11">
-        <v>3283</v>
+        <v>3908</v>
       </c>
       <c r="AT25" s="11">
-        <v>3080</v>
+        <v>4415</v>
       </c>
       <c r="AU25" s="11">
-        <v>3908</v>
+        <v>4425</v>
       </c>
       <c r="AV25" s="11">
-        <v>4415</v>
+        <v>4053</v>
       </c>
       <c r="AW25" s="11">
-        <v>4425</v>
+        <v>4857</v>
       </c>
       <c r="AX25" s="11">
-        <v>4053</v>
+        <v>4300</v>
       </c>
       <c r="AY25" s="11">
-        <v>4857</v>
+        <v>5061</v>
       </c>
       <c r="AZ25" s="11">
-        <v>4300</v>
+        <v>4997</v>
       </c>
       <c r="BA25" s="11">
-        <v>5061</v>
+        <v>5240</v>
       </c>
       <c r="BB25" s="11">
-        <v>4998</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.25">
@@ -3094,100 +3129,100 @@
         <v>0</v>
       </c>
       <c r="W26" s="13">
-        <v>0</v>
+        <v>3366</v>
       </c>
       <c r="X26" s="13">
-        <v>0</v>
+        <v>2919</v>
       </c>
       <c r="Y26" s="13">
-        <v>3366</v>
+        <v>3437</v>
       </c>
       <c r="Z26" s="13">
-        <v>2919</v>
+        <v>3279</v>
       </c>
       <c r="AA26" s="13">
-        <v>3437</v>
+        <v>3365</v>
       </c>
       <c r="AB26" s="13">
-        <v>3279</v>
+        <v>4117</v>
       </c>
       <c r="AC26" s="13">
-        <v>3365</v>
+        <v>3967</v>
       </c>
       <c r="AD26" s="13">
-        <v>4117</v>
+        <v>3748</v>
       </c>
       <c r="AE26" s="13">
-        <v>3967</v>
+        <v>3296</v>
       </c>
       <c r="AF26" s="13">
-        <v>3748</v>
+        <v>2276</v>
       </c>
       <c r="AG26" s="13">
-        <v>3296</v>
+        <v>2591</v>
       </c>
       <c r="AH26" s="13">
-        <v>2276</v>
+        <v>3438</v>
       </c>
       <c r="AI26" s="13">
-        <v>2591</v>
+        <v>3491</v>
       </c>
       <c r="AJ26" s="13">
-        <v>3438</v>
+        <v>3076</v>
       </c>
       <c r="AK26" s="13">
-        <v>3491</v>
+        <v>3928</v>
       </c>
       <c r="AL26" s="13">
-        <v>3076</v>
+        <v>3628</v>
       </c>
       <c r="AM26" s="13">
-        <v>3928</v>
+        <v>3730</v>
       </c>
       <c r="AN26" s="13">
-        <v>3628</v>
+        <v>4365</v>
       </c>
       <c r="AO26" s="13">
-        <v>3730</v>
+        <v>3842</v>
       </c>
       <c r="AP26" s="13">
-        <v>4365</v>
+        <v>3745</v>
       </c>
       <c r="AQ26" s="13">
-        <v>3842</v>
+        <v>3283</v>
       </c>
       <c r="AR26" s="13">
-        <v>3745</v>
+        <v>3080</v>
       </c>
       <c r="AS26" s="13">
-        <v>3283</v>
+        <v>3908</v>
       </c>
       <c r="AT26" s="13">
-        <v>3080</v>
+        <v>4415</v>
       </c>
       <c r="AU26" s="13">
-        <v>3908</v>
+        <v>4425</v>
       </c>
       <c r="AV26" s="13">
-        <v>4415</v>
+        <v>4053</v>
       </c>
       <c r="AW26" s="13">
-        <v>4425</v>
+        <v>4857</v>
       </c>
       <c r="AX26" s="13">
-        <v>4053</v>
+        <v>4300</v>
       </c>
       <c r="AY26" s="13">
-        <v>4857</v>
+        <v>5061</v>
       </c>
       <c r="AZ26" s="13">
-        <v>4300</v>
+        <v>4997</v>
       </c>
       <c r="BA26" s="13">
-        <v>5061</v>
+        <v>5240</v>
       </c>
       <c r="BB26" s="13">
-        <v>4998</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
@@ -3309,101 +3344,101 @@
       <c r="V28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>58</v>
+      <c r="W28" s="11">
+        <v>539</v>
+      </c>
+      <c r="X28" s="11">
+        <v>721</v>
       </c>
       <c r="Y28" s="11">
-        <v>539</v>
+        <v>687</v>
       </c>
       <c r="Z28" s="11">
-        <v>721</v>
+        <v>876</v>
       </c>
       <c r="AA28" s="11">
-        <v>687</v>
+        <v>1229</v>
       </c>
       <c r="AB28" s="11">
-        <v>876</v>
+        <v>604</v>
       </c>
       <c r="AC28" s="11">
-        <v>1229</v>
+        <v>1015</v>
       </c>
       <c r="AD28" s="11">
-        <v>604</v>
+        <v>1125</v>
       </c>
       <c r="AE28" s="11">
-        <v>1015</v>
+        <v>1471</v>
       </c>
       <c r="AF28" s="11">
-        <v>1125</v>
+        <v>841</v>
       </c>
       <c r="AG28" s="11">
-        <v>1471</v>
+        <v>1188</v>
       </c>
       <c r="AH28" s="11">
-        <v>841</v>
+        <v>1107</v>
       </c>
       <c r="AI28" s="11">
-        <v>1188</v>
+        <v>954</v>
       </c>
       <c r="AJ28" s="11">
-        <v>1107</v>
+        <v>800</v>
       </c>
       <c r="AK28" s="11">
-        <v>954</v>
+        <v>735</v>
       </c>
       <c r="AL28" s="11">
-        <v>800</v>
+        <v>1019</v>
       </c>
       <c r="AM28" s="11">
-        <v>735</v>
+        <v>921</v>
       </c>
       <c r="AN28" s="11">
-        <v>1019</v>
+        <v>776</v>
       </c>
       <c r="AO28" s="11">
-        <v>921</v>
+        <v>832</v>
       </c>
       <c r="AP28" s="11">
-        <v>776</v>
+        <v>906</v>
       </c>
       <c r="AQ28" s="11">
-        <v>832</v>
+        <v>1065</v>
       </c>
       <c r="AR28" s="11">
-        <v>906</v>
+        <v>562</v>
       </c>
       <c r="AS28" s="11">
-        <v>1065</v>
+        <v>757</v>
       </c>
       <c r="AT28" s="11">
-        <v>562</v>
+        <v>845</v>
       </c>
       <c r="AU28" s="11">
-        <v>757</v>
+        <v>804</v>
       </c>
       <c r="AV28" s="11">
-        <v>845</v>
+        <v>727</v>
       </c>
       <c r="AW28" s="11">
-        <v>804</v>
+        <v>736</v>
       </c>
       <c r="AX28" s="11">
-        <v>727</v>
+        <v>857</v>
       </c>
       <c r="AY28" s="11">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="AZ28" s="11">
-        <v>857</v>
+        <v>730</v>
       </c>
       <c r="BA28" s="11">
-        <v>708</v>
+        <v>908</v>
       </c>
       <c r="BB28" s="11">
-        <v>730</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.25">
@@ -3467,100 +3502,100 @@
         <v>0</v>
       </c>
       <c r="W29" s="13">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="X29" s="13">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="Y29" s="13">
-        <v>539</v>
+        <v>687</v>
       </c>
       <c r="Z29" s="13">
-        <v>721</v>
+        <v>876</v>
       </c>
       <c r="AA29" s="13">
-        <v>687</v>
+        <v>1229</v>
       </c>
       <c r="AB29" s="13">
-        <v>876</v>
+        <v>604</v>
       </c>
       <c r="AC29" s="13">
-        <v>1229</v>
+        <v>1015</v>
       </c>
       <c r="AD29" s="13">
-        <v>604</v>
+        <v>1125</v>
       </c>
       <c r="AE29" s="13">
-        <v>1015</v>
+        <v>1471</v>
       </c>
       <c r="AF29" s="13">
-        <v>1125</v>
+        <v>841</v>
       </c>
       <c r="AG29" s="13">
-        <v>1471</v>
+        <v>1188</v>
       </c>
       <c r="AH29" s="13">
-        <v>841</v>
+        <v>1107</v>
       </c>
       <c r="AI29" s="13">
-        <v>1188</v>
+        <v>954</v>
       </c>
       <c r="AJ29" s="13">
-        <v>1107</v>
+        <v>800</v>
       </c>
       <c r="AK29" s="13">
-        <v>954</v>
+        <v>735</v>
       </c>
       <c r="AL29" s="13">
-        <v>800</v>
+        <v>1019</v>
       </c>
       <c r="AM29" s="13">
-        <v>735</v>
+        <v>921</v>
       </c>
       <c r="AN29" s="13">
-        <v>1019</v>
+        <v>776</v>
       </c>
       <c r="AO29" s="13">
-        <v>921</v>
+        <v>832</v>
       </c>
       <c r="AP29" s="13">
-        <v>776</v>
+        <v>906</v>
       </c>
       <c r="AQ29" s="13">
-        <v>832</v>
+        <v>1065</v>
       </c>
       <c r="AR29" s="13">
-        <v>906</v>
+        <v>562</v>
       </c>
       <c r="AS29" s="13">
-        <v>1065</v>
+        <v>757</v>
       </c>
       <c r="AT29" s="13">
-        <v>562</v>
+        <v>845</v>
       </c>
       <c r="AU29" s="13">
-        <v>757</v>
+        <v>804</v>
       </c>
       <c r="AV29" s="13">
-        <v>845</v>
+        <v>727</v>
       </c>
       <c r="AW29" s="13">
-        <v>804</v>
+        <v>736</v>
       </c>
       <c r="AX29" s="13">
-        <v>727</v>
+        <v>857</v>
       </c>
       <c r="AY29" s="13">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="AZ29" s="13">
-        <v>857</v>
+        <v>730</v>
       </c>
       <c r="BA29" s="13">
-        <v>708</v>
+        <v>908</v>
       </c>
       <c r="BB29" s="13">
-        <v>730</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.25">
@@ -3680,11 +3715,11 @@
       <c r="V31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>58</v>
+      <c r="W31" s="17">
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <v>0</v>
       </c>
       <c r="Y31" s="17">
         <v>0</v>
@@ -3896,101 +3931,101 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>-27</v>
+      </c>
+      <c r="X33" s="11">
+        <v>-15</v>
       </c>
       <c r="Y33" s="11">
+        <v>-26</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>-16</v>
+      </c>
+      <c r="AA33" s="11">
+        <v>-32</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>-23</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>-37</v>
+      </c>
+      <c r="AD33" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>-35</v>
+      </c>
+      <c r="AF33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>-9</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>-18</v>
+      </c>
+      <c r="AI33" s="11">
+        <v>-28</v>
+      </c>
+      <c r="AJ33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>-20</v>
+      </c>
+      <c r="AL33" s="11">
+        <v>-47</v>
+      </c>
+      <c r="AM33" s="11">
+        <v>-16</v>
+      </c>
+      <c r="AN33" s="11">
+        <v>-31</v>
+      </c>
+      <c r="AO33" s="11">
         <v>-27</v>
       </c>
-      <c r="Z33" s="11">
-        <v>-15</v>
-      </c>
-      <c r="AA33" s="11">
-        <v>-26</v>
-      </c>
-      <c r="AB33" s="11">
+      <c r="AP33" s="11">
         <v>-16</v>
       </c>
-      <c r="AC33" s="11">
-        <v>-32</v>
-      </c>
-      <c r="AD33" s="11">
+      <c r="AQ33" s="11">
+        <v>-59</v>
+      </c>
+      <c r="AR33" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AU33" s="11">
+        <v>-12</v>
+      </c>
+      <c r="AV33" s="11">
+        <v>-5</v>
+      </c>
+      <c r="AW33" s="11">
+        <v>-69</v>
+      </c>
+      <c r="AX33" s="11">
+        <v>-8</v>
+      </c>
+      <c r="AY33" s="11">
+        <v>-9</v>
+      </c>
+      <c r="AZ33" s="11">
+        <v>-38</v>
+      </c>
+      <c r="BA33" s="11">
         <v>-23</v>
       </c>
-      <c r="AE33" s="11">
-        <v>-37</v>
-      </c>
-      <c r="AF33" s="11">
-        <v>-19</v>
-      </c>
-      <c r="AG33" s="11">
-        <v>-35</v>
-      </c>
-      <c r="AH33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI33" s="11">
-        <v>-9</v>
-      </c>
-      <c r="AJ33" s="11">
-        <v>-18</v>
-      </c>
-      <c r="AK33" s="11">
-        <v>-28</v>
-      </c>
-      <c r="AL33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="11">
-        <v>-20</v>
-      </c>
-      <c r="AN33" s="11">
-        <v>-47</v>
-      </c>
-      <c r="AO33" s="11">
-        <v>-16</v>
-      </c>
-      <c r="AP33" s="11">
-        <v>-31</v>
-      </c>
-      <c r="AQ33" s="11">
-        <v>-27</v>
-      </c>
-      <c r="AR33" s="11">
-        <v>-16</v>
-      </c>
-      <c r="AS33" s="11">
-        <v>-59</v>
-      </c>
-      <c r="AT33" s="11">
-        <v>-2</v>
-      </c>
-      <c r="AU33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV33" s="11">
-        <v>-19</v>
-      </c>
-      <c r="AW33" s="11">
-        <v>-12</v>
-      </c>
-      <c r="AX33" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AY33" s="11">
-        <v>-69</v>
-      </c>
-      <c r="AZ33" s="11">
-        <v>-8</v>
-      </c>
-      <c r="BA33" s="11">
-        <v>-9</v>
-      </c>
       <c r="BB33" s="11">
-        <v>-38</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.25">
@@ -4053,101 +4088,101 @@
       <c r="V34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>58</v>
+      <c r="W34" s="13">
+        <v>-27</v>
+      </c>
+      <c r="X34" s="13">
+        <v>-15</v>
       </c>
       <c r="Y34" s="13">
+        <v>-26</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>-16</v>
+      </c>
+      <c r="AA34" s="13">
+        <v>-32</v>
+      </c>
+      <c r="AB34" s="13">
+        <v>-23</v>
+      </c>
+      <c r="AC34" s="13">
+        <v>-37</v>
+      </c>
+      <c r="AD34" s="13">
+        <v>-19</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>-35</v>
+      </c>
+      <c r="AF34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="13">
+        <v>-9</v>
+      </c>
+      <c r="AH34" s="13">
+        <v>-18</v>
+      </c>
+      <c r="AI34" s="13">
+        <v>-28</v>
+      </c>
+      <c r="AJ34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="13">
+        <v>-20</v>
+      </c>
+      <c r="AL34" s="13">
+        <v>-47</v>
+      </c>
+      <c r="AM34" s="13">
+        <v>-16</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>-31</v>
+      </c>
+      <c r="AO34" s="13">
         <v>-27</v>
       </c>
-      <c r="Z34" s="13">
-        <v>-15</v>
-      </c>
-      <c r="AA34" s="13">
-        <v>-26</v>
-      </c>
-      <c r="AB34" s="13">
+      <c r="AP34" s="13">
         <v>-16</v>
       </c>
-      <c r="AC34" s="13">
-        <v>-32</v>
-      </c>
-      <c r="AD34" s="13">
+      <c r="AQ34" s="13">
+        <v>-59</v>
+      </c>
+      <c r="AR34" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="13">
+        <v>-19</v>
+      </c>
+      <c r="AU34" s="13">
+        <v>-12</v>
+      </c>
+      <c r="AV34" s="13">
+        <v>-5</v>
+      </c>
+      <c r="AW34" s="13">
+        <v>-69</v>
+      </c>
+      <c r="AX34" s="13">
+        <v>-8</v>
+      </c>
+      <c r="AY34" s="13">
+        <v>-9</v>
+      </c>
+      <c r="AZ34" s="13">
+        <v>-38</v>
+      </c>
+      <c r="BA34" s="13">
         <v>-23</v>
       </c>
-      <c r="AE34" s="13">
-        <v>-37</v>
-      </c>
-      <c r="AF34" s="13">
-        <v>-19</v>
-      </c>
-      <c r="AG34" s="13">
-        <v>-35</v>
-      </c>
-      <c r="AH34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="13">
-        <v>-9</v>
-      </c>
-      <c r="AJ34" s="13">
-        <v>-18</v>
-      </c>
-      <c r="AK34" s="13">
-        <v>-28</v>
-      </c>
-      <c r="AL34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="13">
-        <v>-20</v>
-      </c>
-      <c r="AN34" s="13">
-        <v>-47</v>
-      </c>
-      <c r="AO34" s="13">
-        <v>-16</v>
-      </c>
-      <c r="AP34" s="13">
-        <v>-31</v>
-      </c>
-      <c r="AQ34" s="13">
-        <v>-27</v>
-      </c>
-      <c r="AR34" s="13">
-        <v>-16</v>
-      </c>
-      <c r="AS34" s="13">
-        <v>-59</v>
-      </c>
-      <c r="AT34" s="13">
-        <v>-2</v>
-      </c>
-      <c r="AU34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV34" s="13">
-        <v>-19</v>
-      </c>
-      <c r="AW34" s="13">
-        <v>-12</v>
-      </c>
-      <c r="AX34" s="13">
-        <v>-5</v>
-      </c>
-      <c r="AY34" s="13">
-        <v>-69</v>
-      </c>
-      <c r="AZ34" s="13">
-        <v>-8</v>
-      </c>
-      <c r="BA34" s="13">
-        <v>-9</v>
-      </c>
       <c r="BB34" s="13">
-        <v>-38</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.25">
@@ -4211,100 +4246,100 @@
         <v>0</v>
       </c>
       <c r="W35" s="17">
-        <v>0</v>
+        <v>3878</v>
       </c>
       <c r="X35" s="17">
-        <v>0</v>
+        <v>3625</v>
       </c>
       <c r="Y35" s="17">
-        <v>3878</v>
+        <v>4098</v>
       </c>
       <c r="Z35" s="17">
-        <v>3625</v>
+        <v>4139</v>
       </c>
       <c r="AA35" s="17">
-        <v>4098</v>
+        <v>4562</v>
       </c>
       <c r="AB35" s="17">
-        <v>4139</v>
+        <v>4698</v>
       </c>
       <c r="AC35" s="17">
-        <v>4562</v>
+        <v>4945</v>
       </c>
       <c r="AD35" s="17">
-        <v>4698</v>
+        <v>4854</v>
       </c>
       <c r="AE35" s="17">
-        <v>4945</v>
+        <v>4732</v>
       </c>
       <c r="AF35" s="17">
-        <v>4854</v>
+        <v>3117</v>
       </c>
       <c r="AG35" s="17">
-        <v>4732</v>
+        <v>3770</v>
       </c>
       <c r="AH35" s="17">
-        <v>3117</v>
+        <v>4527</v>
       </c>
       <c r="AI35" s="17">
-        <v>3770</v>
+        <v>4417</v>
       </c>
       <c r="AJ35" s="17">
-        <v>4527</v>
+        <v>3876</v>
       </c>
       <c r="AK35" s="17">
-        <v>4417</v>
+        <v>4643</v>
       </c>
       <c r="AL35" s="17">
-        <v>3876</v>
+        <v>4600</v>
       </c>
       <c r="AM35" s="17">
-        <v>4643</v>
+        <v>4635</v>
       </c>
       <c r="AN35" s="17">
-        <v>4600</v>
+        <v>5110</v>
       </c>
       <c r="AO35" s="17">
+        <v>4647</v>
+      </c>
+      <c r="AP35" s="17">
         <v>4635</v>
       </c>
-      <c r="AP35" s="17">
-        <v>5110</v>
-      </c>
       <c r="AQ35" s="17">
-        <v>4647</v>
+        <v>4289</v>
       </c>
       <c r="AR35" s="17">
-        <v>4635</v>
+        <v>3640</v>
       </c>
       <c r="AS35" s="17">
-        <v>4289</v>
+        <v>4665</v>
       </c>
       <c r="AT35" s="17">
-        <v>3640</v>
+        <v>5241</v>
       </c>
       <c r="AU35" s="17">
-        <v>4665</v>
+        <v>5217</v>
       </c>
       <c r="AV35" s="17">
-        <v>5241</v>
+        <v>4775</v>
       </c>
       <c r="AW35" s="17">
-        <v>5217</v>
+        <v>5524</v>
       </c>
       <c r="AX35" s="17">
-        <v>4775</v>
+        <v>5149</v>
       </c>
       <c r="AY35" s="17">
-        <v>5524</v>
+        <v>5760</v>
       </c>
       <c r="AZ35" s="17">
-        <v>5149</v>
+        <v>5689</v>
       </c>
       <c r="BA35" s="17">
-        <v>5760</v>
+        <v>6125</v>
       </c>
       <c r="BB35" s="17">
-        <v>5690</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.25">
@@ -4803,101 +4838,101 @@
       <c r="V42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>58</v>
+      <c r="W42" s="11">
+        <v>332307</v>
+      </c>
+      <c r="X42" s="11">
+        <v>262380</v>
       </c>
       <c r="Y42" s="11">
-        <v>332307</v>
+        <v>354760</v>
       </c>
       <c r="Z42" s="11">
-        <v>262380</v>
+        <v>404875</v>
       </c>
       <c r="AA42" s="11">
-        <v>354760</v>
+        <v>475935</v>
       </c>
       <c r="AB42" s="11">
-        <v>404875</v>
+        <v>577975</v>
       </c>
       <c r="AC42" s="11">
-        <v>475935</v>
+        <v>555819</v>
       </c>
       <c r="AD42" s="11">
-        <v>577975</v>
+        <v>740942</v>
       </c>
       <c r="AE42" s="11">
-        <v>555819</v>
+        <v>669384</v>
       </c>
       <c r="AF42" s="11">
-        <v>740942</v>
+        <v>455141</v>
       </c>
       <c r="AG42" s="11">
-        <v>669384</v>
+        <v>519271</v>
       </c>
       <c r="AH42" s="11">
-        <v>455141</v>
+        <v>705987</v>
       </c>
       <c r="AI42" s="11">
-        <v>519271</v>
+        <v>710027</v>
       </c>
       <c r="AJ42" s="11">
-        <v>705987</v>
+        <v>743082</v>
       </c>
       <c r="AK42" s="11">
-        <v>710027</v>
+        <v>959657</v>
       </c>
       <c r="AL42" s="11">
-        <v>743082</v>
+        <v>903994</v>
       </c>
       <c r="AM42" s="11">
-        <v>959657</v>
+        <v>921980</v>
       </c>
       <c r="AN42" s="11">
-        <v>903994</v>
+        <v>1085802</v>
       </c>
       <c r="AO42" s="11">
-        <v>921980</v>
+        <v>971670</v>
       </c>
       <c r="AP42" s="11">
-        <v>1085802</v>
+        <v>915239</v>
       </c>
       <c r="AQ42" s="11">
-        <v>971670</v>
+        <v>1003798</v>
       </c>
       <c r="AR42" s="11">
-        <v>1257721</v>
+        <v>958967</v>
       </c>
       <c r="AS42" s="11">
-        <v>1003798</v>
+        <v>1226157</v>
       </c>
       <c r="AT42" s="11">
-        <v>958967</v>
+        <v>1396470</v>
       </c>
       <c r="AU42" s="11">
-        <v>1226157</v>
+        <v>1399423</v>
       </c>
       <c r="AV42" s="11">
-        <v>1396470</v>
+        <v>1619493</v>
       </c>
       <c r="AW42" s="11">
-        <v>1747932</v>
+        <v>2019537</v>
       </c>
       <c r="AX42" s="11">
-        <v>1619493</v>
+        <v>1721229</v>
       </c>
       <c r="AY42" s="11">
-        <v>2019537</v>
+        <v>2013904</v>
       </c>
       <c r="AZ42" s="11">
-        <v>1721229</v>
+        <v>1994819</v>
       </c>
       <c r="BA42" s="11">
-        <v>2013904</v>
+        <v>2102667</v>
       </c>
       <c r="BB42" s="11">
-        <v>1995112</v>
+        <v>2180291</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.25">
@@ -4961,100 +4996,100 @@
         <v>0</v>
       </c>
       <c r="W43" s="13">
-        <v>0</v>
+        <v>332307</v>
       </c>
       <c r="X43" s="13">
-        <v>0</v>
+        <v>262380</v>
       </c>
       <c r="Y43" s="13">
-        <v>332307</v>
+        <v>354760</v>
       </c>
       <c r="Z43" s="13">
-        <v>262380</v>
+        <v>404875</v>
       </c>
       <c r="AA43" s="13">
-        <v>354760</v>
+        <v>475935</v>
       </c>
       <c r="AB43" s="13">
-        <v>404875</v>
+        <v>577975</v>
       </c>
       <c r="AC43" s="13">
-        <v>475935</v>
+        <v>555819</v>
       </c>
       <c r="AD43" s="13">
-        <v>577975</v>
+        <v>740942</v>
       </c>
       <c r="AE43" s="13">
-        <v>555819</v>
+        <v>669384</v>
       </c>
       <c r="AF43" s="13">
-        <v>740942</v>
+        <v>455141</v>
       </c>
       <c r="AG43" s="13">
-        <v>669384</v>
+        <v>519271</v>
       </c>
       <c r="AH43" s="13">
-        <v>455141</v>
+        <v>705987</v>
       </c>
       <c r="AI43" s="13">
-        <v>519271</v>
+        <v>710027</v>
       </c>
       <c r="AJ43" s="13">
-        <v>705987</v>
+        <v>743082</v>
       </c>
       <c r="AK43" s="13">
-        <v>710027</v>
+        <v>959657</v>
       </c>
       <c r="AL43" s="13">
-        <v>743082</v>
+        <v>903994</v>
       </c>
       <c r="AM43" s="13">
-        <v>959657</v>
+        <v>921980</v>
       </c>
       <c r="AN43" s="13">
-        <v>903994</v>
+        <v>1085802</v>
       </c>
       <c r="AO43" s="13">
-        <v>921980</v>
+        <v>971670</v>
       </c>
       <c r="AP43" s="13">
-        <v>1085802</v>
+        <v>915239</v>
       </c>
       <c r="AQ43" s="13">
-        <v>971670</v>
+        <v>1003798</v>
       </c>
       <c r="AR43" s="13">
-        <v>1257721</v>
+        <v>958967</v>
       </c>
       <c r="AS43" s="13">
-        <v>1003798</v>
+        <v>1226157</v>
       </c>
       <c r="AT43" s="13">
-        <v>958967</v>
+        <v>1396470</v>
       </c>
       <c r="AU43" s="13">
-        <v>1226157</v>
+        <v>1399423</v>
       </c>
       <c r="AV43" s="13">
-        <v>1396470</v>
+        <v>1619493</v>
       </c>
       <c r="AW43" s="13">
-        <v>1747932</v>
+        <v>2019537</v>
       </c>
       <c r="AX43" s="13">
-        <v>1619493</v>
+        <v>1721229</v>
       </c>
       <c r="AY43" s="13">
-        <v>2019537</v>
+        <v>2013904</v>
       </c>
       <c r="AZ43" s="13">
-        <v>1721229</v>
+        <v>1994819</v>
       </c>
       <c r="BA43" s="13">
-        <v>2013904</v>
+        <v>2102667</v>
       </c>
       <c r="BB43" s="13">
-        <v>1995112</v>
+        <v>2180291</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.25">
@@ -5176,101 +5211,101 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>102621</v>
+      </c>
+      <c r="X45" s="11">
+        <v>179845</v>
       </c>
       <c r="Y45" s="11">
-        <v>102621</v>
+        <v>203152</v>
       </c>
       <c r="Z45" s="11">
-        <v>179845</v>
+        <v>253194</v>
       </c>
       <c r="AA45" s="11">
-        <v>203152</v>
+        <v>388238</v>
       </c>
       <c r="AB45" s="11">
-        <v>253194</v>
+        <v>189118</v>
       </c>
       <c r="AC45" s="11">
-        <v>388238</v>
+        <v>329244</v>
       </c>
       <c r="AD45" s="11">
-        <v>189118</v>
+        <v>347740</v>
       </c>
       <c r="AE45" s="11">
-        <v>329244</v>
+        <v>414656</v>
       </c>
       <c r="AF45" s="11">
-        <v>347740</v>
+        <v>240967</v>
       </c>
       <c r="AG45" s="11">
-        <v>414656</v>
+        <v>315480</v>
       </c>
       <c r="AH45" s="11">
-        <v>240967</v>
+        <v>290880</v>
       </c>
       <c r="AI45" s="11">
-        <v>315480</v>
+        <v>254892</v>
       </c>
       <c r="AJ45" s="11">
-        <v>290880</v>
+        <v>233343</v>
       </c>
       <c r="AK45" s="11">
-        <v>254892</v>
+        <v>218264</v>
       </c>
       <c r="AL45" s="11">
-        <v>233343</v>
+        <v>303219</v>
       </c>
       <c r="AM45" s="11">
-        <v>218264</v>
+        <v>283452</v>
       </c>
       <c r="AN45" s="11">
-        <v>303219</v>
+        <v>239102</v>
       </c>
       <c r="AO45" s="11">
-        <v>283452</v>
+        <v>271290</v>
       </c>
       <c r="AP45" s="11">
-        <v>239102</v>
+        <v>290042</v>
       </c>
       <c r="AQ45" s="11">
-        <v>271290</v>
+        <v>333032</v>
       </c>
       <c r="AR45" s="11">
-        <v>290042</v>
+        <v>179035</v>
       </c>
       <c r="AS45" s="11">
-        <v>333032</v>
+        <v>263209</v>
       </c>
       <c r="AT45" s="11">
-        <v>179035</v>
+        <v>304568</v>
       </c>
       <c r="AU45" s="11">
-        <v>263209</v>
+        <v>295672</v>
       </c>
       <c r="AV45" s="11">
-        <v>304568</v>
+        <v>275363</v>
       </c>
       <c r="AW45" s="11">
-        <v>295672</v>
+        <v>266119</v>
       </c>
       <c r="AX45" s="11">
-        <v>275363</v>
+        <v>342611</v>
       </c>
       <c r="AY45" s="11">
-        <v>266119</v>
+        <v>271513</v>
       </c>
       <c r="AZ45" s="11">
-        <v>342611</v>
+        <v>317241</v>
       </c>
       <c r="BA45" s="11">
-        <v>271513</v>
+        <v>407634</v>
       </c>
       <c r="BB45" s="11">
-        <v>316570</v>
+        <v>477468</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.25">
@@ -5334,100 +5369,100 @@
         <v>0</v>
       </c>
       <c r="W46" s="13">
-        <v>0</v>
+        <v>102621</v>
       </c>
       <c r="X46" s="13">
-        <v>0</v>
+        <v>179845</v>
       </c>
       <c r="Y46" s="13">
-        <v>102621</v>
+        <v>203152</v>
       </c>
       <c r="Z46" s="13">
-        <v>179845</v>
+        <v>253194</v>
       </c>
       <c r="AA46" s="13">
-        <v>203152</v>
+        <v>388238</v>
       </c>
       <c r="AB46" s="13">
-        <v>253194</v>
+        <v>189118</v>
       </c>
       <c r="AC46" s="13">
-        <v>388238</v>
+        <v>329244</v>
       </c>
       <c r="AD46" s="13">
-        <v>189118</v>
+        <v>347740</v>
       </c>
       <c r="AE46" s="13">
-        <v>329244</v>
+        <v>414656</v>
       </c>
       <c r="AF46" s="13">
-        <v>347740</v>
+        <v>240967</v>
       </c>
       <c r="AG46" s="13">
-        <v>414656</v>
+        <v>315480</v>
       </c>
       <c r="AH46" s="13">
-        <v>240967</v>
+        <v>290880</v>
       </c>
       <c r="AI46" s="13">
-        <v>315480</v>
+        <v>254892</v>
       </c>
       <c r="AJ46" s="13">
-        <v>290880</v>
+        <v>233343</v>
       </c>
       <c r="AK46" s="13">
-        <v>254892</v>
+        <v>218264</v>
       </c>
       <c r="AL46" s="13">
-        <v>233343</v>
+        <v>303219</v>
       </c>
       <c r="AM46" s="13">
-        <v>218264</v>
+        <v>283452</v>
       </c>
       <c r="AN46" s="13">
-        <v>303219</v>
+        <v>239102</v>
       </c>
       <c r="AO46" s="13">
-        <v>283452</v>
+        <v>271290</v>
       </c>
       <c r="AP46" s="13">
-        <v>239102</v>
+        <v>290042</v>
       </c>
       <c r="AQ46" s="13">
-        <v>271290</v>
+        <v>333032</v>
       </c>
       <c r="AR46" s="13">
-        <v>290042</v>
+        <v>179035</v>
       </c>
       <c r="AS46" s="13">
-        <v>333032</v>
+        <v>263209</v>
       </c>
       <c r="AT46" s="13">
-        <v>179035</v>
+        <v>304568</v>
       </c>
       <c r="AU46" s="13">
-        <v>263209</v>
+        <v>295672</v>
       </c>
       <c r="AV46" s="13">
-        <v>304568</v>
+        <v>275363</v>
       </c>
       <c r="AW46" s="13">
-        <v>295672</v>
+        <v>266119</v>
       </c>
       <c r="AX46" s="13">
-        <v>275363</v>
+        <v>342611</v>
       </c>
       <c r="AY46" s="13">
-        <v>266119</v>
+        <v>271513</v>
       </c>
       <c r="AZ46" s="13">
-        <v>342611</v>
+        <v>317241</v>
       </c>
       <c r="BA46" s="13">
-        <v>271513</v>
+        <v>407634</v>
       </c>
       <c r="BB46" s="13">
-        <v>316570</v>
+        <v>477468</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.25">
@@ -5549,11 +5584,11 @@
       <c r="V48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X48" s="17" t="s">
-        <v>58</v>
+      <c r="W48" s="17">
+        <v>0</v>
+      </c>
+      <c r="X48" s="17">
+        <v>0</v>
       </c>
       <c r="Y48" s="17">
         <v>0</v>
@@ -5765,101 +5800,101 @@
       <c r="V50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X50" s="11" t="s">
-        <v>58</v>
+      <c r="W50" s="11">
+        <v>-2568</v>
+      </c>
+      <c r="X50" s="11">
+        <v>-1463</v>
       </c>
       <c r="Y50" s="11">
-        <v>-2568</v>
+        <v>-3581</v>
       </c>
       <c r="Z50" s="11">
-        <v>-1463</v>
+        <v>-1750</v>
       </c>
       <c r="AA50" s="11">
-        <v>-3581</v>
+        <v>-4625</v>
       </c>
       <c r="AB50" s="11">
-        <v>-1750</v>
+        <v>-3214</v>
       </c>
       <c r="AC50" s="11">
-        <v>-4625</v>
+        <v>-4166</v>
       </c>
       <c r="AD50" s="11">
-        <v>-3214</v>
+        <v>-3440</v>
       </c>
       <c r="AE50" s="11">
-        <v>-4166</v>
-      </c>
-      <c r="AF50" s="11">
-        <v>-3440</v>
+        <v>-7146</v>
+      </c>
+      <c r="AF50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG50" s="11">
-        <v>-7146</v>
-      </c>
-      <c r="AH50" s="11" t="s">
-        <v>58</v>
+        <v>-1440</v>
+      </c>
+      <c r="AH50" s="11">
+        <v>-3656</v>
       </c>
       <c r="AI50" s="11">
-        <v>-1440</v>
+        <v>-5163</v>
       </c>
       <c r="AJ50" s="11">
-        <v>-3656</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="11">
-        <v>-5163</v>
+        <v>-2943</v>
       </c>
       <c r="AL50" s="11">
-        <v>0</v>
+        <v>-11229</v>
       </c>
       <c r="AM50" s="11">
-        <v>-2943</v>
+        <v>-2957</v>
       </c>
       <c r="AN50" s="11">
-        <v>-11229</v>
+        <v>-8405</v>
       </c>
       <c r="AO50" s="11">
-        <v>-2957</v>
+        <v>-6996</v>
       </c>
       <c r="AP50" s="11">
-        <v>-8405</v>
+        <v>-5015</v>
       </c>
       <c r="AQ50" s="11">
-        <v>-6996</v>
+        <v>-12778</v>
       </c>
       <c r="AR50" s="11">
-        <v>-5015</v>
+        <v>-664</v>
       </c>
       <c r="AS50" s="11">
-        <v>-12778</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="11">
-        <v>-664</v>
+        <v>-6110</v>
       </c>
       <c r="AU50" s="11">
-        <v>0</v>
+        <v>-3865</v>
       </c>
       <c r="AV50" s="11">
-        <v>-6110</v>
+        <v>-1784</v>
       </c>
       <c r="AW50" s="11">
-        <v>-3865</v>
+        <v>-10395</v>
       </c>
       <c r="AX50" s="11">
-        <v>-1784</v>
+        <v>-3659</v>
       </c>
       <c r="AY50" s="11">
-        <v>-10395</v>
+        <v>-2429</v>
       </c>
       <c r="AZ50" s="11">
-        <v>-3659</v>
+        <v>-12098</v>
       </c>
       <c r="BA50" s="11">
-        <v>-2429</v>
+        <v>-6705</v>
       </c>
       <c r="BB50" s="11">
-        <v>-12098</v>
+        <v>-12051</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.25">
@@ -5924,101 +5959,101 @@
       <c r="V51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="13" t="s">
-        <v>58</v>
+      <c r="W51" s="13">
+        <v>-2568</v>
+      </c>
+      <c r="X51" s="13">
+        <v>-1463</v>
       </c>
       <c r="Y51" s="13">
-        <v>-2568</v>
+        <v>-3581</v>
       </c>
       <c r="Z51" s="13">
-        <v>-1463</v>
+        <v>-1750</v>
       </c>
       <c r="AA51" s="13">
-        <v>-3581</v>
+        <v>-4625</v>
       </c>
       <c r="AB51" s="13">
-        <v>-1750</v>
+        <v>-3214</v>
       </c>
       <c r="AC51" s="13">
-        <v>-4625</v>
+        <v>-4166</v>
       </c>
       <c r="AD51" s="13">
-        <v>-3214</v>
+        <v>-3440</v>
       </c>
       <c r="AE51" s="13">
-        <v>-4166</v>
+        <v>-7146</v>
       </c>
       <c r="AF51" s="13">
-        <v>-3440</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="13">
-        <v>-7146</v>
+        <v>-1440</v>
       </c>
       <c r="AH51" s="13">
-        <v>0</v>
+        <v>-3656</v>
       </c>
       <c r="AI51" s="13">
-        <v>-1440</v>
+        <v>-5163</v>
       </c>
       <c r="AJ51" s="13">
-        <v>-3656</v>
+        <v>0</v>
       </c>
       <c r="AK51" s="13">
-        <v>-5163</v>
+        <v>-2943</v>
       </c>
       <c r="AL51" s="13">
-        <v>0</v>
+        <v>-11229</v>
       </c>
       <c r="AM51" s="13">
-        <v>-2943</v>
+        <v>-2957</v>
       </c>
       <c r="AN51" s="13">
-        <v>-11229</v>
+        <v>-8405</v>
       </c>
       <c r="AO51" s="13">
-        <v>-2957</v>
+        <v>-6996</v>
       </c>
       <c r="AP51" s="13">
-        <v>-8405</v>
+        <v>-5015</v>
       </c>
       <c r="AQ51" s="13">
-        <v>-6996</v>
+        <v>-12778</v>
       </c>
       <c r="AR51" s="13">
-        <v>-5015</v>
+        <v>-664</v>
       </c>
       <c r="AS51" s="13">
-        <v>-12778</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="13">
-        <v>-664</v>
+        <v>-6110</v>
       </c>
       <c r="AU51" s="13">
-        <v>0</v>
+        <v>-3865</v>
       </c>
       <c r="AV51" s="13">
-        <v>-6110</v>
+        <v>-1784</v>
       </c>
       <c r="AW51" s="13">
-        <v>-3865</v>
+        <v>-10395</v>
       </c>
       <c r="AX51" s="13">
-        <v>-1784</v>
+        <v>-3659</v>
       </c>
       <c r="AY51" s="13">
-        <v>-10395</v>
+        <v>-2429</v>
       </c>
       <c r="AZ51" s="13">
-        <v>-3659</v>
+        <v>-12098</v>
       </c>
       <c r="BA51" s="13">
-        <v>-2429</v>
+        <v>-6705</v>
       </c>
       <c r="BB51" s="13">
-        <v>-12098</v>
+        <v>-12051</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.25">
@@ -6140,11 +6175,11 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
+        <v>0</v>
       </c>
       <c r="Y53" s="11">
         <v>0</v>
@@ -6298,100 +6333,100 @@
         <v>0</v>
       </c>
       <c r="W54" s="13">
-        <v>0</v>
+        <v>432360</v>
       </c>
       <c r="X54" s="13">
-        <v>0</v>
+        <v>440762</v>
       </c>
       <c r="Y54" s="13">
-        <v>432360</v>
+        <v>554331</v>
       </c>
       <c r="Z54" s="13">
-        <v>440762</v>
+        <v>656319</v>
       </c>
       <c r="AA54" s="13">
-        <v>554331</v>
+        <v>859548</v>
       </c>
       <c r="AB54" s="13">
-        <v>656319</v>
+        <v>763879</v>
       </c>
       <c r="AC54" s="13">
-        <v>859548</v>
+        <v>880897</v>
       </c>
       <c r="AD54" s="13">
-        <v>763879</v>
+        <v>1085242</v>
       </c>
       <c r="AE54" s="13">
-        <v>880897</v>
+        <v>1076894</v>
       </c>
       <c r="AF54" s="13">
-        <v>1085242</v>
+        <v>696108</v>
       </c>
       <c r="AG54" s="13">
-        <v>1076894</v>
+        <v>833311</v>
       </c>
       <c r="AH54" s="13">
-        <v>696108</v>
+        <v>993211</v>
       </c>
       <c r="AI54" s="13">
-        <v>833311</v>
+        <v>959756</v>
       </c>
       <c r="AJ54" s="13">
-        <v>993211</v>
+        <v>976425</v>
       </c>
       <c r="AK54" s="13">
-        <v>959756</v>
+        <v>1174978</v>
       </c>
       <c r="AL54" s="13">
-        <v>976425</v>
+        <v>1195984</v>
       </c>
       <c r="AM54" s="13">
-        <v>1174978</v>
+        <v>1202475</v>
       </c>
       <c r="AN54" s="13">
-        <v>1195984</v>
+        <v>1316499</v>
       </c>
       <c r="AO54" s="13">
-        <v>1202475</v>
+        <v>1235964</v>
       </c>
       <c r="AP54" s="13">
-        <v>1316499</v>
+        <v>1200266</v>
       </c>
       <c r="AQ54" s="13">
-        <v>1235964</v>
+        <v>1324052</v>
       </c>
       <c r="AR54" s="13">
-        <v>1542748</v>
+        <v>1137338</v>
       </c>
       <c r="AS54" s="13">
-        <v>1324052</v>
+        <v>1489366</v>
       </c>
       <c r="AT54" s="13">
-        <v>1137338</v>
+        <v>1694928</v>
       </c>
       <c r="AU54" s="13">
-        <v>1489366</v>
+        <v>1691230</v>
       </c>
       <c r="AV54" s="13">
-        <v>1694928</v>
+        <v>1893072</v>
       </c>
       <c r="AW54" s="13">
-        <v>2039739</v>
+        <v>2275261</v>
       </c>
       <c r="AX54" s="13">
-        <v>1893072</v>
+        <v>2060181</v>
       </c>
       <c r="AY54" s="13">
-        <v>2275261</v>
+        <v>2282988</v>
       </c>
       <c r="AZ54" s="13">
-        <v>2060181</v>
+        <v>2299962</v>
       </c>
       <c r="BA54" s="13">
-        <v>2282988</v>
+        <v>2503596</v>
       </c>
       <c r="BB54" s="13">
-        <v>2299584</v>
+        <v>2645708</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.25">
@@ -6890,101 +6925,101 @@
       <c r="V61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="11" t="s">
-        <v>58</v>
+      <c r="W61" s="11">
+        <v>98724599</v>
+      </c>
+      <c r="X61" s="11">
+        <v>89886948</v>
       </c>
       <c r="Y61" s="11">
-        <v>98724599</v>
+        <v>103217923</v>
       </c>
       <c r="Z61" s="11">
-        <v>89886948</v>
+        <v>123475145</v>
       </c>
       <c r="AA61" s="11">
-        <v>103217923</v>
+        <v>141436850</v>
       </c>
       <c r="AB61" s="11">
-        <v>123475145</v>
+        <v>140387418</v>
       </c>
       <c r="AC61" s="11">
-        <v>141436850</v>
+        <v>140110663</v>
       </c>
       <c r="AD61" s="11">
-        <v>140387418</v>
+        <v>197689968</v>
       </c>
       <c r="AE61" s="11">
-        <v>140110663</v>
+        <v>203089806</v>
       </c>
       <c r="AF61" s="11">
-        <v>197689968</v>
+        <v>199974077</v>
       </c>
       <c r="AG61" s="11">
-        <v>203089806</v>
+        <v>200413354</v>
       </c>
       <c r="AH61" s="11">
-        <v>199974077</v>
+        <v>205348168</v>
       </c>
       <c r="AI61" s="11">
-        <v>200413354</v>
+        <v>203387854</v>
       </c>
       <c r="AJ61" s="11">
-        <v>205348168</v>
+        <v>241574122</v>
       </c>
       <c r="AK61" s="11">
-        <v>203387854</v>
+        <v>244311864</v>
       </c>
       <c r="AL61" s="11">
-        <v>241574122</v>
+        <v>249171444</v>
       </c>
       <c r="AM61" s="11">
-        <v>244311864</v>
+        <v>247179625</v>
       </c>
       <c r="AN61" s="11">
-        <v>249171444</v>
+        <v>248751890</v>
       </c>
       <c r="AO61" s="11">
-        <v>247179625</v>
+        <v>252907340</v>
       </c>
       <c r="AP61" s="11">
-        <v>248751890</v>
+        <v>244389586</v>
       </c>
       <c r="AQ61" s="11">
-        <v>252907340</v>
+        <v>305756320</v>
       </c>
       <c r="AR61" s="11">
-        <v>253376256</v>
+        <v>311352922</v>
       </c>
       <c r="AS61" s="11">
-        <v>305756320</v>
+        <v>313755629</v>
       </c>
       <c r="AT61" s="11">
-        <v>311352922</v>
+        <v>316301246</v>
       </c>
       <c r="AU61" s="11">
-        <v>313755629</v>
+        <v>316253785</v>
       </c>
       <c r="AV61" s="11">
-        <v>316301246</v>
+        <v>399578831</v>
       </c>
       <c r="AW61" s="11">
-        <v>338272297</v>
+        <v>415799259</v>
       </c>
       <c r="AX61" s="11">
-        <v>399578831</v>
+        <v>400285814</v>
       </c>
       <c r="AY61" s="11">
-        <v>415799259</v>
+        <v>397926102</v>
       </c>
       <c r="AZ61" s="11">
-        <v>400285814</v>
+        <v>399203322</v>
       </c>
       <c r="BA61" s="11">
-        <v>397926102</v>
+        <v>401272328</v>
       </c>
       <c r="BB61" s="11">
-        <v>399182073</v>
+        <v>407226560</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.25">
@@ -7106,101 +7141,101 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>190391466</v>
+      </c>
+      <c r="X63" s="11">
+        <v>249438280</v>
       </c>
       <c r="Y63" s="11">
-        <v>190391466</v>
+        <v>295708879</v>
       </c>
       <c r="Z63" s="11">
-        <v>249438280</v>
+        <v>289034247</v>
       </c>
       <c r="AA63" s="11">
-        <v>295708879</v>
+        <v>315897478</v>
       </c>
       <c r="AB63" s="11">
-        <v>289034247</v>
+        <v>313109272</v>
       </c>
       <c r="AC63" s="11">
-        <v>315897478</v>
+        <v>324378325</v>
       </c>
       <c r="AD63" s="11">
-        <v>313109272</v>
+        <v>309102222</v>
       </c>
       <c r="AE63" s="11">
-        <v>324378325</v>
+        <v>281887152</v>
       </c>
       <c r="AF63" s="11">
-        <v>309102222</v>
+        <v>286524376</v>
       </c>
       <c r="AG63" s="11">
-        <v>281887152</v>
+        <v>265555556</v>
       </c>
       <c r="AH63" s="11">
-        <v>286524376</v>
+        <v>262764228</v>
       </c>
       <c r="AI63" s="11">
-        <v>265555556</v>
+        <v>267182390</v>
       </c>
       <c r="AJ63" s="11">
-        <v>262764228</v>
+        <v>291678750</v>
       </c>
       <c r="AK63" s="11">
-        <v>267182390</v>
+        <v>296957823</v>
       </c>
       <c r="AL63" s="11">
-        <v>291678750</v>
+        <v>297565260</v>
       </c>
       <c r="AM63" s="11">
-        <v>296957823</v>
+        <v>307765472</v>
       </c>
       <c r="AN63" s="11">
-        <v>297565260</v>
+        <v>308121134</v>
       </c>
       <c r="AO63" s="11">
-        <v>307765472</v>
+        <v>326069712</v>
       </c>
       <c r="AP63" s="11">
-        <v>308121134</v>
+        <v>320134658</v>
       </c>
       <c r="AQ63" s="11">
-        <v>326069712</v>
+        <v>312706103</v>
       </c>
       <c r="AR63" s="11">
-        <v>320134658</v>
+        <v>318567616</v>
       </c>
       <c r="AS63" s="11">
-        <v>312706103</v>
+        <v>347700132</v>
       </c>
       <c r="AT63" s="11">
-        <v>318567616</v>
+        <v>360435503</v>
       </c>
       <c r="AU63" s="11">
-        <v>347700132</v>
+        <v>367751244</v>
       </c>
       <c r="AV63" s="11">
-        <v>360435503</v>
+        <v>378766162</v>
       </c>
       <c r="AW63" s="11">
-        <v>367751244</v>
+        <v>361574728</v>
       </c>
       <c r="AX63" s="11">
-        <v>378766162</v>
+        <v>399779463</v>
       </c>
       <c r="AY63" s="11">
-        <v>361574728</v>
+        <v>383492938</v>
       </c>
       <c r="AZ63" s="11">
-        <v>399779463</v>
+        <v>434576712</v>
       </c>
       <c r="BA63" s="11">
-        <v>383492938</v>
+        <v>448936123</v>
       </c>
       <c r="BB63" s="11">
-        <v>433657534</v>
+        <v>468105882</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/khodro/khetrak/product/monthly_seprated.xlsx
+++ b/database/industries/khodro/khetrak/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="84">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3276,107 +3276,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>3818</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>3818</v>
+        <v>2698</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>2698</v>
+        <v>3150</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>3150</v>
+        <v>3357</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>3357</v>
+        <v>3248</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>3248</v>
+        <v>3697</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>3697</v>
+        <v>3598</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>3598</v>
+        <v>3531</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>3531</v>
+        <v>3022</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>3022</v>
+        <v>2518</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>2518</v>
+        <v>2558</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>2558</v>
+        <v>3110</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>3110</v>
+        <v>3567</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>3567</v>
+        <v>2789</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>2789</v>
+        <v>3902</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>3902</v>
+        <v>3107</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>3107</v>
+        <v>3946</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>3946</v>
+        <v>3781</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>3781</v>
+        <v>3416</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>3416</v>
+        <v>3622</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>3622</v>
+        <v>3401</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>3401</v>
+        <v>2861</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>2861</v>
+        <v>3723</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>3723</v>
+        <v>4288</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>4288</v>
+        <v>4450</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>4450</v>
+        <v>3380</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>3380</v>
+        <v>4635</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>4635</v>
+        <v>4105</v>
       </c>
       <c r="AW11" s="13" t="n">
+        <v>4997</v>
+      </c>
+      <c r="AX11" s="13" t="n">
+        <v>4770</v>
+      </c>
+      <c r="AY11" s="13" t="n">
+        <v>4421</v>
+      </c>
+      <c r="AZ11" s="13" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BA11" s="13" t="n">
         <v>4105</v>
       </c>
-      <c r="AX11" s="13" t="n">
-        <v>4997</v>
-      </c>
-      <c r="AY11" s="13" t="n">
-        <v>4770</v>
-      </c>
-      <c r="AZ11" s="13" t="n">
-        <v>4421</v>
-      </c>
-      <c r="BA11" s="13" t="n">
-        <v>4500</v>
-      </c>
       <c r="BB11" s="13" t="n">
-        <v>4105</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,106 +3434,106 @@
         <v>0</v>
       </c>
       <c r="U12" s="15" t="n">
-        <v>0</v>
+        <v>3818</v>
       </c>
       <c r="V12" s="15" t="n">
-        <v>3818</v>
+        <v>2698</v>
       </c>
       <c r="W12" s="15" t="n">
-        <v>2698</v>
+        <v>3150</v>
       </c>
       <c r="X12" s="15" t="n">
-        <v>3150</v>
+        <v>3357</v>
       </c>
       <c r="Y12" s="15" t="n">
-        <v>3357</v>
+        <v>3248</v>
       </c>
       <c r="Z12" s="15" t="n">
-        <v>3248</v>
+        <v>3697</v>
       </c>
       <c r="AA12" s="15" t="n">
-        <v>3697</v>
+        <v>3598</v>
       </c>
       <c r="AB12" s="15" t="n">
-        <v>3598</v>
+        <v>3531</v>
       </c>
       <c r="AC12" s="15" t="n">
-        <v>3531</v>
+        <v>3022</v>
       </c>
       <c r="AD12" s="15" t="n">
-        <v>3022</v>
+        <v>2518</v>
       </c>
       <c r="AE12" s="15" t="n">
-        <v>2518</v>
+        <v>2558</v>
       </c>
       <c r="AF12" s="15" t="n">
-        <v>2558</v>
+        <v>3110</v>
       </c>
       <c r="AG12" s="15" t="n">
-        <v>3110</v>
+        <v>3567</v>
       </c>
       <c r="AH12" s="15" t="n">
-        <v>3567</v>
+        <v>2789</v>
       </c>
       <c r="AI12" s="15" t="n">
-        <v>2789</v>
+        <v>3902</v>
       </c>
       <c r="AJ12" s="15" t="n">
-        <v>3902</v>
+        <v>3107</v>
       </c>
       <c r="AK12" s="15" t="n">
-        <v>3107</v>
+        <v>3946</v>
       </c>
       <c r="AL12" s="15" t="n">
-        <v>3946</v>
+        <v>3781</v>
       </c>
       <c r="AM12" s="15" t="n">
-        <v>3781</v>
+        <v>3416</v>
       </c>
       <c r="AN12" s="15" t="n">
-        <v>3416</v>
+        <v>3622</v>
       </c>
       <c r="AO12" s="15" t="n">
-        <v>3622</v>
+        <v>3401</v>
       </c>
       <c r="AP12" s="15" t="n">
-        <v>3401</v>
+        <v>2861</v>
       </c>
       <c r="AQ12" s="15" t="n">
-        <v>2861</v>
+        <v>3723</v>
       </c>
       <c r="AR12" s="15" t="n">
-        <v>3723</v>
+        <v>4288</v>
       </c>
       <c r="AS12" s="15" t="n">
-        <v>4288</v>
+        <v>4450</v>
       </c>
       <c r="AT12" s="15" t="n">
-        <v>4450</v>
+        <v>3380</v>
       </c>
       <c r="AU12" s="15" t="n">
-        <v>3380</v>
+        <v>4635</v>
       </c>
       <c r="AV12" s="15" t="n">
-        <v>4635</v>
+        <v>4105</v>
       </c>
       <c r="AW12" s="15" t="n">
+        <v>4997</v>
+      </c>
+      <c r="AX12" s="15" t="n">
+        <v>4770</v>
+      </c>
+      <c r="AY12" s="15" t="n">
+        <v>4421</v>
+      </c>
+      <c r="AZ12" s="15" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BA12" s="15" t="n">
         <v>4105</v>
       </c>
-      <c r="AX12" s="15" t="n">
-        <v>4997</v>
-      </c>
-      <c r="AY12" s="15" t="n">
-        <v>4770</v>
-      </c>
-      <c r="AZ12" s="15" t="n">
-        <v>4421</v>
-      </c>
-      <c r="BA12" s="15" t="n">
-        <v>4500</v>
-      </c>
       <c r="BB12" s="15" t="n">
-        <v>4105</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,107 +3649,107 @@
       <c r="T14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="13" t="s">
-        <v>58</v>
+      <c r="U14" s="13" t="n">
+        <v>320</v>
       </c>
       <c r="V14" s="13" t="n">
-        <v>320</v>
+        <v>572</v>
       </c>
       <c r="W14" s="13" t="n">
-        <v>572</v>
+        <v>711</v>
       </c>
       <c r="X14" s="13" t="n">
-        <v>711</v>
+        <v>765</v>
       </c>
       <c r="Y14" s="13" t="n">
-        <v>765</v>
+        <v>914</v>
       </c>
       <c r="Z14" s="13" t="n">
-        <v>914</v>
+        <v>708</v>
       </c>
       <c r="AA14" s="13" t="n">
-        <v>708</v>
+        <v>841</v>
       </c>
       <c r="AB14" s="13" t="n">
-        <v>841</v>
+        <v>1318</v>
       </c>
       <c r="AC14" s="13" t="n">
-        <v>1318</v>
+        <v>1078</v>
       </c>
       <c r="AD14" s="13" t="n">
-        <v>1078</v>
+        <v>958</v>
       </c>
       <c r="AE14" s="13" t="n">
-        <v>958</v>
+        <v>1241</v>
       </c>
       <c r="AF14" s="13" t="n">
-        <v>1241</v>
+        <v>1041</v>
       </c>
       <c r="AG14" s="13" t="n">
-        <v>1041</v>
+        <v>1075</v>
       </c>
       <c r="AH14" s="13" t="n">
-        <v>1075</v>
+        <v>448</v>
       </c>
       <c r="AI14" s="13" t="n">
-        <v>448</v>
+        <v>1225</v>
       </c>
       <c r="AJ14" s="13" t="n">
-        <v>1225</v>
+        <v>993</v>
       </c>
       <c r="AK14" s="13" t="n">
-        <v>993</v>
+        <v>775</v>
       </c>
       <c r="AL14" s="13" t="n">
-        <v>775</v>
+        <v>946</v>
       </c>
       <c r="AM14" s="13" t="n">
-        <v>946</v>
+        <v>858</v>
       </c>
       <c r="AN14" s="13" t="n">
-        <v>858</v>
+        <v>1002</v>
       </c>
       <c r="AO14" s="13" t="n">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="AP14" s="13" t="n">
-        <v>970</v>
+        <v>699</v>
       </c>
       <c r="AQ14" s="13" t="n">
-        <v>699</v>
+        <v>937</v>
       </c>
       <c r="AR14" s="13" t="n">
-        <v>937</v>
+        <v>963</v>
       </c>
       <c r="AS14" s="13" t="n">
-        <v>963</v>
+        <v>799</v>
       </c>
       <c r="AT14" s="13" t="n">
-        <v>799</v>
+        <v>690</v>
       </c>
       <c r="AU14" s="13" t="n">
-        <v>690</v>
+        <v>905</v>
       </c>
       <c r="AV14" s="13" t="n">
-        <v>905</v>
+        <v>707</v>
       </c>
       <c r="AW14" s="13" t="n">
-        <v>707</v>
+        <v>1012</v>
       </c>
       <c r="AX14" s="13" t="n">
-        <v>1012</v>
+        <v>1023</v>
       </c>
       <c r="AY14" s="13" t="n">
-        <v>1023</v>
+        <v>700</v>
       </c>
       <c r="AZ14" s="13" t="n">
-        <v>700</v>
+        <v>964</v>
       </c>
       <c r="BA14" s="13" t="n">
-        <v>964</v>
+        <v>917</v>
       </c>
       <c r="BB14" s="13" t="n">
-        <v>917</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,106 +3807,106 @@
         <v>0</v>
       </c>
       <c r="U15" s="15" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="V15" s="15" t="n">
-        <v>320</v>
+        <v>572</v>
       </c>
       <c r="W15" s="15" t="n">
-        <v>572</v>
+        <v>711</v>
       </c>
       <c r="X15" s="15" t="n">
-        <v>711</v>
+        <v>765</v>
       </c>
       <c r="Y15" s="15" t="n">
-        <v>765</v>
+        <v>914</v>
       </c>
       <c r="Z15" s="15" t="n">
-        <v>914</v>
+        <v>708</v>
       </c>
       <c r="AA15" s="15" t="n">
-        <v>708</v>
+        <v>841</v>
       </c>
       <c r="AB15" s="15" t="n">
-        <v>841</v>
+        <v>1318</v>
       </c>
       <c r="AC15" s="15" t="n">
-        <v>1318</v>
+        <v>1078</v>
       </c>
       <c r="AD15" s="15" t="n">
-        <v>1078</v>
+        <v>958</v>
       </c>
       <c r="AE15" s="15" t="n">
-        <v>958</v>
+        <v>1241</v>
       </c>
       <c r="AF15" s="15" t="n">
-        <v>1241</v>
+        <v>1041</v>
       </c>
       <c r="AG15" s="15" t="n">
-        <v>1041</v>
+        <v>1075</v>
       </c>
       <c r="AH15" s="15" t="n">
-        <v>1075</v>
+        <v>448</v>
       </c>
       <c r="AI15" s="15" t="n">
-        <v>448</v>
+        <v>1225</v>
       </c>
       <c r="AJ15" s="15" t="n">
-        <v>1225</v>
+        <v>993</v>
       </c>
       <c r="AK15" s="15" t="n">
-        <v>993</v>
+        <v>775</v>
       </c>
       <c r="AL15" s="15" t="n">
-        <v>775</v>
+        <v>946</v>
       </c>
       <c r="AM15" s="15" t="n">
-        <v>946</v>
+        <v>858</v>
       </c>
       <c r="AN15" s="15" t="n">
-        <v>858</v>
+        <v>1002</v>
       </c>
       <c r="AO15" s="15" t="n">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="AP15" s="15" t="n">
-        <v>970</v>
+        <v>699</v>
       </c>
       <c r="AQ15" s="15" t="n">
-        <v>699</v>
+        <v>937</v>
       </c>
       <c r="AR15" s="15" t="n">
-        <v>937</v>
+        <v>963</v>
       </c>
       <c r="AS15" s="15" t="n">
-        <v>963</v>
+        <v>799</v>
       </c>
       <c r="AT15" s="15" t="n">
-        <v>799</v>
+        <v>690</v>
       </c>
       <c r="AU15" s="15" t="n">
-        <v>690</v>
+        <v>905</v>
       </c>
       <c r="AV15" s="15" t="n">
-        <v>905</v>
+        <v>707</v>
       </c>
       <c r="AW15" s="15" t="n">
-        <v>707</v>
+        <v>1012</v>
       </c>
       <c r="AX15" s="15" t="n">
-        <v>1012</v>
+        <v>1023</v>
       </c>
       <c r="AY15" s="15" t="n">
-        <v>1023</v>
+        <v>700</v>
       </c>
       <c r="AZ15" s="15" t="n">
-        <v>700</v>
+        <v>964</v>
       </c>
       <c r="BA15" s="15" t="n">
-        <v>964</v>
+        <v>917</v>
       </c>
       <c r="BB15" s="15" t="n">
-        <v>917</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4020,8 +4020,8 @@
       <c r="T17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="19" t="s">
-        <v>58</v>
+      <c r="U17" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V17" s="19" t="n">
         <v>0</v>
@@ -4178,106 +4178,106 @@
         <v>0</v>
       </c>
       <c r="U18" s="15" t="n">
-        <v>0</v>
+        <v>4138</v>
       </c>
       <c r="V18" s="15" t="n">
-        <v>4138</v>
+        <v>3270</v>
       </c>
       <c r="W18" s="15" t="n">
-        <v>3270</v>
+        <v>3861</v>
       </c>
       <c r="X18" s="15" t="n">
-        <v>3861</v>
+        <v>4122</v>
       </c>
       <c r="Y18" s="15" t="n">
-        <v>4122</v>
+        <v>4162</v>
       </c>
       <c r="Z18" s="15" t="n">
-        <v>4162</v>
+        <v>4405</v>
       </c>
       <c r="AA18" s="15" t="n">
-        <v>4405</v>
+        <v>4439</v>
       </c>
       <c r="AB18" s="15" t="n">
-        <v>4439</v>
+        <v>4849</v>
       </c>
       <c r="AC18" s="15" t="n">
-        <v>4849</v>
+        <v>4100</v>
       </c>
       <c r="AD18" s="15" t="n">
+        <v>3476</v>
+      </c>
+      <c r="AE18" s="15" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AF18" s="15" t="n">
+        <v>4151</v>
+      </c>
+      <c r="AG18" s="15" t="n">
+        <v>4642</v>
+      </c>
+      <c r="AH18" s="15" t="n">
+        <v>3237</v>
+      </c>
+      <c r="AI18" s="15" t="n">
+        <v>5127</v>
+      </c>
+      <c r="AJ18" s="15" t="n">
         <v>4100</v>
       </c>
-      <c r="AE18" s="15" t="n">
-        <v>3476</v>
-      </c>
-      <c r="AF18" s="15" t="n">
-        <v>3799</v>
-      </c>
-      <c r="AG18" s="15" t="n">
-        <v>4151</v>
-      </c>
-      <c r="AH18" s="15" t="n">
-        <v>4642</v>
-      </c>
-      <c r="AI18" s="15" t="n">
-        <v>3237</v>
-      </c>
-      <c r="AJ18" s="15" t="n">
-        <v>5127</v>
-      </c>
       <c r="AK18" s="15" t="n">
-        <v>4100</v>
+        <v>4721</v>
       </c>
       <c r="AL18" s="15" t="n">
-        <v>4721</v>
+        <v>4727</v>
       </c>
       <c r="AM18" s="15" t="n">
-        <v>4727</v>
+        <v>4274</v>
       </c>
       <c r="AN18" s="15" t="n">
-        <v>4274</v>
+        <v>4624</v>
       </c>
       <c r="AO18" s="15" t="n">
-        <v>4624</v>
+        <v>4371</v>
       </c>
       <c r="AP18" s="15" t="n">
-        <v>4371</v>
+        <v>3560</v>
       </c>
       <c r="AQ18" s="15" t="n">
-        <v>3560</v>
+        <v>4660</v>
       </c>
       <c r="AR18" s="15" t="n">
-        <v>4660</v>
+        <v>5251</v>
       </c>
       <c r="AS18" s="15" t="n">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="AT18" s="15" t="n">
-        <v>5249</v>
+        <v>4070</v>
       </c>
       <c r="AU18" s="15" t="n">
-        <v>4070</v>
+        <v>5540</v>
       </c>
       <c r="AV18" s="15" t="n">
-        <v>5540</v>
+        <v>4812</v>
       </c>
       <c r="AW18" s="15" t="n">
-        <v>4812</v>
+        <v>6009</v>
       </c>
       <c r="AX18" s="15" t="n">
-        <v>6009</v>
+        <v>5793</v>
       </c>
       <c r="AY18" s="15" t="n">
-        <v>5793</v>
+        <v>5121</v>
       </c>
       <c r="AZ18" s="15" t="n">
-        <v>5121</v>
+        <v>5464</v>
       </c>
       <c r="BA18" s="15" t="n">
-        <v>5464</v>
+        <v>5022</v>
       </c>
       <c r="BB18" s="15" t="n">
-        <v>5022</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,107 +4770,107 @@
       <c r="T25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U25" s="13" t="s">
-        <v>58</v>
+      <c r="U25" s="13" t="n">
+        <v>3366</v>
       </c>
       <c r="V25" s="13" t="n">
-        <v>3366</v>
+        <v>2919</v>
       </c>
       <c r="W25" s="13" t="n">
-        <v>2919</v>
+        <v>3437</v>
       </c>
       <c r="X25" s="13" t="n">
-        <v>3437</v>
+        <v>3279</v>
       </c>
       <c r="Y25" s="13" t="n">
-        <v>3279</v>
+        <v>3365</v>
       </c>
       <c r="Z25" s="13" t="n">
-        <v>3365</v>
+        <v>4117</v>
       </c>
       <c r="AA25" s="13" t="n">
-        <v>4117</v>
+        <v>3967</v>
       </c>
       <c r="AB25" s="13" t="n">
-        <v>3967</v>
+        <v>3748</v>
       </c>
       <c r="AC25" s="13" t="n">
-        <v>3748</v>
+        <v>3296</v>
       </c>
       <c r="AD25" s="13" t="n">
-        <v>3296</v>
+        <v>2276</v>
       </c>
       <c r="AE25" s="13" t="n">
-        <v>2276</v>
+        <v>2591</v>
       </c>
       <c r="AF25" s="13" t="n">
-        <v>2591</v>
+        <v>3438</v>
       </c>
       <c r="AG25" s="13" t="n">
-        <v>3438</v>
+        <v>3491</v>
       </c>
       <c r="AH25" s="13" t="n">
-        <v>3491</v>
+        <v>3076</v>
       </c>
       <c r="AI25" s="13" t="n">
-        <v>3076</v>
+        <v>3928</v>
       </c>
       <c r="AJ25" s="13" t="n">
-        <v>3928</v>
+        <v>3628</v>
       </c>
       <c r="AK25" s="13" t="n">
-        <v>3628</v>
+        <v>3730</v>
       </c>
       <c r="AL25" s="13" t="n">
-        <v>3730</v>
+        <v>4365</v>
       </c>
       <c r="AM25" s="13" t="n">
-        <v>4365</v>
+        <v>3842</v>
       </c>
       <c r="AN25" s="13" t="n">
-        <v>3842</v>
+        <v>3745</v>
       </c>
       <c r="AO25" s="13" t="n">
-        <v>3745</v>
+        <v>3283</v>
       </c>
       <c r="AP25" s="13" t="n">
-        <v>3283</v>
+        <v>3080</v>
       </c>
       <c r="AQ25" s="13" t="n">
-        <v>3080</v>
+        <v>3908</v>
       </c>
       <c r="AR25" s="13" t="n">
-        <v>3908</v>
+        <v>4415</v>
       </c>
       <c r="AS25" s="13" t="n">
-        <v>4415</v>
+        <v>4425</v>
       </c>
       <c r="AT25" s="13" t="n">
-        <v>4425</v>
+        <v>4053</v>
       </c>
       <c r="AU25" s="13" t="n">
-        <v>4053</v>
+        <v>4857</v>
       </c>
       <c r="AV25" s="13" t="n">
-        <v>4857</v>
+        <v>4300</v>
       </c>
       <c r="AW25" s="13" t="n">
-        <v>4300</v>
+        <v>5061</v>
       </c>
       <c r="AX25" s="13" t="n">
-        <v>5061</v>
+        <v>4997</v>
       </c>
       <c r="AY25" s="13" t="n">
-        <v>4997</v>
+        <v>5240</v>
       </c>
       <c r="AZ25" s="13" t="n">
-        <v>5240</v>
+        <v>5354</v>
       </c>
       <c r="BA25" s="13" t="n">
-        <v>5354</v>
+        <v>4354</v>
       </c>
       <c r="BB25" s="13" t="n">
-        <v>4354</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,106 +4928,106 @@
         <v>0</v>
       </c>
       <c r="U26" s="15" t="n">
-        <v>0</v>
+        <v>3366</v>
       </c>
       <c r="V26" s="15" t="n">
-        <v>3366</v>
+        <v>2919</v>
       </c>
       <c r="W26" s="15" t="n">
-        <v>2919</v>
+        <v>3437</v>
       </c>
       <c r="X26" s="15" t="n">
-        <v>3437</v>
+        <v>3279</v>
       </c>
       <c r="Y26" s="15" t="n">
-        <v>3279</v>
+        <v>3365</v>
       </c>
       <c r="Z26" s="15" t="n">
-        <v>3365</v>
+        <v>4117</v>
       </c>
       <c r="AA26" s="15" t="n">
-        <v>4117</v>
+        <v>3967</v>
       </c>
       <c r="AB26" s="15" t="n">
-        <v>3967</v>
+        <v>3748</v>
       </c>
       <c r="AC26" s="15" t="n">
-        <v>3748</v>
+        <v>3296</v>
       </c>
       <c r="AD26" s="15" t="n">
-        <v>3296</v>
+        <v>2276</v>
       </c>
       <c r="AE26" s="15" t="n">
-        <v>2276</v>
+        <v>2591</v>
       </c>
       <c r="AF26" s="15" t="n">
-        <v>2591</v>
+        <v>3438</v>
       </c>
       <c r="AG26" s="15" t="n">
-        <v>3438</v>
+        <v>3491</v>
       </c>
       <c r="AH26" s="15" t="n">
-        <v>3491</v>
+        <v>3076</v>
       </c>
       <c r="AI26" s="15" t="n">
-        <v>3076</v>
+        <v>3928</v>
       </c>
       <c r="AJ26" s="15" t="n">
-        <v>3928</v>
+        <v>3628</v>
       </c>
       <c r="AK26" s="15" t="n">
-        <v>3628</v>
+        <v>3730</v>
       </c>
       <c r="AL26" s="15" t="n">
-        <v>3730</v>
+        <v>4365</v>
       </c>
       <c r="AM26" s="15" t="n">
-        <v>4365</v>
+        <v>3842</v>
       </c>
       <c r="AN26" s="15" t="n">
-        <v>3842</v>
+        <v>3745</v>
       </c>
       <c r="AO26" s="15" t="n">
-        <v>3745</v>
+        <v>3283</v>
       </c>
       <c r="AP26" s="15" t="n">
-        <v>3283</v>
+        <v>3080</v>
       </c>
       <c r="AQ26" s="15" t="n">
-        <v>3080</v>
+        <v>3908</v>
       </c>
       <c r="AR26" s="15" t="n">
-        <v>3908</v>
+        <v>4415</v>
       </c>
       <c r="AS26" s="15" t="n">
-        <v>4415</v>
+        <v>4425</v>
       </c>
       <c r="AT26" s="15" t="n">
-        <v>4425</v>
+        <v>4053</v>
       </c>
       <c r="AU26" s="15" t="n">
-        <v>4053</v>
+        <v>4857</v>
       </c>
       <c r="AV26" s="15" t="n">
-        <v>4857</v>
+        <v>4300</v>
       </c>
       <c r="AW26" s="15" t="n">
-        <v>4300</v>
+        <v>5061</v>
       </c>
       <c r="AX26" s="15" t="n">
-        <v>5061</v>
+        <v>4997</v>
       </c>
       <c r="AY26" s="15" t="n">
-        <v>4997</v>
+        <v>5240</v>
       </c>
       <c r="AZ26" s="15" t="n">
-        <v>5240</v>
+        <v>5354</v>
       </c>
       <c r="BA26" s="15" t="n">
-        <v>5354</v>
+        <v>4354</v>
       </c>
       <c r="BB26" s="15" t="n">
-        <v>4354</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,107 +5143,107 @@
       <c r="T28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U28" s="13" t="s">
-        <v>58</v>
+      <c r="U28" s="13" t="n">
+        <v>539</v>
       </c>
       <c r="V28" s="13" t="n">
-        <v>539</v>
+        <v>721</v>
       </c>
       <c r="W28" s="13" t="n">
-        <v>721</v>
+        <v>687</v>
       </c>
       <c r="X28" s="13" t="n">
-        <v>687</v>
+        <v>876</v>
       </c>
       <c r="Y28" s="13" t="n">
-        <v>876</v>
+        <v>1229</v>
       </c>
       <c r="Z28" s="13" t="n">
-        <v>1229</v>
+        <v>604</v>
       </c>
       <c r="AA28" s="13" t="n">
-        <v>604</v>
+        <v>1015</v>
       </c>
       <c r="AB28" s="13" t="n">
-        <v>1015</v>
+        <v>1125</v>
       </c>
       <c r="AC28" s="13" t="n">
-        <v>1125</v>
+        <v>1471</v>
       </c>
       <c r="AD28" s="13" t="n">
-        <v>1471</v>
+        <v>841</v>
       </c>
       <c r="AE28" s="13" t="n">
-        <v>841</v>
+        <v>1188</v>
       </c>
       <c r="AF28" s="13" t="n">
-        <v>1188</v>
+        <v>1107</v>
       </c>
       <c r="AG28" s="13" t="n">
-        <v>1107</v>
+        <v>954</v>
       </c>
       <c r="AH28" s="13" t="n">
-        <v>954</v>
+        <v>800</v>
       </c>
       <c r="AI28" s="13" t="n">
-        <v>800</v>
+        <v>735</v>
       </c>
       <c r="AJ28" s="13" t="n">
-        <v>735</v>
+        <v>1019</v>
       </c>
       <c r="AK28" s="13" t="n">
-        <v>1019</v>
+        <v>921</v>
       </c>
       <c r="AL28" s="13" t="n">
-        <v>921</v>
+        <v>776</v>
       </c>
       <c r="AM28" s="13" t="n">
-        <v>776</v>
+        <v>832</v>
       </c>
       <c r="AN28" s="13" t="n">
-        <v>832</v>
+        <v>906</v>
       </c>
       <c r="AO28" s="13" t="n">
-        <v>906</v>
+        <v>1065</v>
       </c>
       <c r="AP28" s="13" t="n">
-        <v>1065</v>
+        <v>562</v>
       </c>
       <c r="AQ28" s="13" t="n">
-        <v>562</v>
+        <v>757</v>
       </c>
       <c r="AR28" s="13" t="n">
-        <v>757</v>
+        <v>845</v>
       </c>
       <c r="AS28" s="13" t="n">
-        <v>845</v>
+        <v>804</v>
       </c>
       <c r="AT28" s="13" t="n">
-        <v>804</v>
+        <v>727</v>
       </c>
       <c r="AU28" s="13" t="n">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="AV28" s="13" t="n">
-        <v>736</v>
+        <v>857</v>
       </c>
       <c r="AW28" s="13" t="n">
-        <v>857</v>
+        <v>708</v>
       </c>
       <c r="AX28" s="13" t="n">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="AY28" s="13" t="n">
-        <v>730</v>
+        <v>908</v>
       </c>
       <c r="AZ28" s="13" t="n">
-        <v>908</v>
+        <v>1020</v>
       </c>
       <c r="BA28" s="13" t="n">
-        <v>1020</v>
+        <v>965</v>
       </c>
       <c r="BB28" s="13" t="n">
-        <v>965</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,106 +5301,106 @@
         <v>0</v>
       </c>
       <c r="U29" s="15" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="V29" s="15" t="n">
-        <v>539</v>
+        <v>721</v>
       </c>
       <c r="W29" s="15" t="n">
-        <v>721</v>
+        <v>687</v>
       </c>
       <c r="X29" s="15" t="n">
-        <v>687</v>
+        <v>876</v>
       </c>
       <c r="Y29" s="15" t="n">
-        <v>876</v>
+        <v>1229</v>
       </c>
       <c r="Z29" s="15" t="n">
-        <v>1229</v>
+        <v>604</v>
       </c>
       <c r="AA29" s="15" t="n">
-        <v>604</v>
+        <v>1015</v>
       </c>
       <c r="AB29" s="15" t="n">
-        <v>1015</v>
+        <v>1125</v>
       </c>
       <c r="AC29" s="15" t="n">
-        <v>1125</v>
+        <v>1471</v>
       </c>
       <c r="AD29" s="15" t="n">
-        <v>1471</v>
+        <v>841</v>
       </c>
       <c r="AE29" s="15" t="n">
-        <v>841</v>
+        <v>1188</v>
       </c>
       <c r="AF29" s="15" t="n">
-        <v>1188</v>
+        <v>1107</v>
       </c>
       <c r="AG29" s="15" t="n">
-        <v>1107</v>
+        <v>954</v>
       </c>
       <c r="AH29" s="15" t="n">
-        <v>954</v>
+        <v>800</v>
       </c>
       <c r="AI29" s="15" t="n">
-        <v>800</v>
+        <v>735</v>
       </c>
       <c r="AJ29" s="15" t="n">
-        <v>735</v>
+        <v>1019</v>
       </c>
       <c r="AK29" s="15" t="n">
-        <v>1019</v>
+        <v>921</v>
       </c>
       <c r="AL29" s="15" t="n">
-        <v>921</v>
+        <v>776</v>
       </c>
       <c r="AM29" s="15" t="n">
-        <v>776</v>
+        <v>832</v>
       </c>
       <c r="AN29" s="15" t="n">
-        <v>832</v>
+        <v>906</v>
       </c>
       <c r="AO29" s="15" t="n">
-        <v>906</v>
+        <v>1065</v>
       </c>
       <c r="AP29" s="15" t="n">
-        <v>1065</v>
+        <v>562</v>
       </c>
       <c r="AQ29" s="15" t="n">
-        <v>562</v>
+        <v>757</v>
       </c>
       <c r="AR29" s="15" t="n">
-        <v>757</v>
+        <v>845</v>
       </c>
       <c r="AS29" s="15" t="n">
-        <v>845</v>
+        <v>804</v>
       </c>
       <c r="AT29" s="15" t="n">
-        <v>804</v>
+        <v>727</v>
       </c>
       <c r="AU29" s="15" t="n">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="AV29" s="15" t="n">
-        <v>736</v>
+        <v>857</v>
       </c>
       <c r="AW29" s="15" t="n">
-        <v>857</v>
+        <v>708</v>
       </c>
       <c r="AX29" s="15" t="n">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="AY29" s="15" t="n">
-        <v>730</v>
+        <v>908</v>
       </c>
       <c r="AZ29" s="15" t="n">
-        <v>908</v>
+        <v>1020</v>
       </c>
       <c r="BA29" s="15" t="n">
-        <v>1020</v>
+        <v>965</v>
       </c>
       <c r="BB29" s="15" t="n">
-        <v>965</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5514,8 +5514,8 @@
       <c r="T31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="19" t="s">
-        <v>58</v>
+      <c r="U31" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="19" t="n">
         <v>0</v>
@@ -5730,107 +5730,107 @@
       <c r="T33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="13" t="s">
-        <v>58</v>
+      <c r="U33" s="13" t="n">
+        <v>-27</v>
       </c>
       <c r="V33" s="13" t="n">
+        <v>-15</v>
+      </c>
+      <c r="W33" s="13" t="n">
+        <v>-26</v>
+      </c>
+      <c r="X33" s="13" t="n">
+        <v>-16</v>
+      </c>
+      <c r="Y33" s="13" t="n">
+        <v>-32</v>
+      </c>
+      <c r="Z33" s="13" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AA33" s="13" t="n">
+        <v>-37</v>
+      </c>
+      <c r="AB33" s="13" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AC33" s="13" t="n">
+        <v>-35</v>
+      </c>
+      <c r="AD33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE33" s="13" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AF33" s="13" t="n">
+        <v>-18</v>
+      </c>
+      <c r="AG33" s="13" t="n">
+        <v>-28</v>
+      </c>
+      <c r="AH33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="13" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AJ33" s="13" t="n">
+        <v>-47</v>
+      </c>
+      <c r="AK33" s="13" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AL33" s="13" t="n">
+        <v>-31</v>
+      </c>
+      <c r="AM33" s="13" t="n">
         <v>-27</v>
       </c>
-      <c r="W33" s="13" t="n">
-        <v>-15</v>
-      </c>
-      <c r="X33" s="13" t="n">
-        <v>-26</v>
-      </c>
-      <c r="Y33" s="13" t="n">
+      <c r="AN33" s="13" t="n">
         <v>-16</v>
       </c>
-      <c r="Z33" s="13" t="n">
-        <v>-32</v>
-      </c>
-      <c r="AA33" s="13" t="n">
+      <c r="AO33" s="13" t="n">
+        <v>-59</v>
+      </c>
+      <c r="AP33" s="13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AQ33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="13" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AS33" s="13" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AT33" s="13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AU33" s="13" t="n">
+        <v>-69</v>
+      </c>
+      <c r="AV33" s="13" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AW33" s="13" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AX33" s="13" t="n">
+        <v>-38</v>
+      </c>
+      <c r="AY33" s="13" t="n">
         <v>-23</v>
       </c>
-      <c r="AB33" s="13" t="n">
-        <v>-37</v>
-      </c>
-      <c r="AC33" s="13" t="n">
-        <v>-19</v>
-      </c>
-      <c r="AD33" s="13" t="n">
-        <v>-35</v>
-      </c>
-      <c r="AE33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF33" s="13" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AG33" s="13" t="n">
-        <v>-18</v>
-      </c>
-      <c r="AH33" s="13" t="n">
-        <v>-28</v>
-      </c>
-      <c r="AI33" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="13" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AK33" s="13" t="n">
-        <v>-47</v>
-      </c>
-      <c r="AL33" s="13" t="n">
-        <v>-16</v>
-      </c>
-      <c r="AM33" s="13" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AN33" s="13" t="n">
-        <v>-27</v>
-      </c>
-      <c r="AO33" s="13" t="n">
-        <v>-16</v>
-      </c>
-      <c r="AP33" s="13" t="n">
-        <v>-59</v>
-      </c>
-      <c r="AQ33" s="13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AR33" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="13" t="n">
-        <v>-19</v>
-      </c>
-      <c r="AT33" s="13" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AU33" s="13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AV33" s="13" t="n">
-        <v>-69</v>
-      </c>
-      <c r="AW33" s="13" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AX33" s="13" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AY33" s="13" t="n">
-        <v>-38</v>
-      </c>
       <c r="AZ33" s="13" t="n">
-        <v>-23</v>
+        <v>-36</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>-36</v>
+        <v>-45</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,107 +5887,107 @@
       <c r="T34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="15" t="s">
-        <v>58</v>
+      <c r="U34" s="15" t="n">
+        <v>-27</v>
       </c>
       <c r="V34" s="15" t="n">
+        <v>-15</v>
+      </c>
+      <c r="W34" s="15" t="n">
+        <v>-26</v>
+      </c>
+      <c r="X34" s="15" t="n">
+        <v>-16</v>
+      </c>
+      <c r="Y34" s="15" t="n">
+        <v>-32</v>
+      </c>
+      <c r="Z34" s="15" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AA34" s="15" t="n">
+        <v>-37</v>
+      </c>
+      <c r="AB34" s="15" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AC34" s="15" t="n">
+        <v>-35</v>
+      </c>
+      <c r="AD34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="15" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AF34" s="15" t="n">
+        <v>-18</v>
+      </c>
+      <c r="AG34" s="15" t="n">
+        <v>-28</v>
+      </c>
+      <c r="AH34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="15" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AJ34" s="15" t="n">
+        <v>-47</v>
+      </c>
+      <c r="AK34" s="15" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AL34" s="15" t="n">
+        <v>-31</v>
+      </c>
+      <c r="AM34" s="15" t="n">
         <v>-27</v>
       </c>
-      <c r="W34" s="15" t="n">
-        <v>-15</v>
-      </c>
-      <c r="X34" s="15" t="n">
-        <v>-26</v>
-      </c>
-      <c r="Y34" s="15" t="n">
+      <c r="AN34" s="15" t="n">
         <v>-16</v>
       </c>
-      <c r="Z34" s="15" t="n">
-        <v>-32</v>
-      </c>
-      <c r="AA34" s="15" t="n">
+      <c r="AO34" s="15" t="n">
+        <v>-59</v>
+      </c>
+      <c r="AP34" s="15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AQ34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="15" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AS34" s="15" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AT34" s="15" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AU34" s="15" t="n">
+        <v>-69</v>
+      </c>
+      <c r="AV34" s="15" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AW34" s="15" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AX34" s="15" t="n">
+        <v>-38</v>
+      </c>
+      <c r="AY34" s="15" t="n">
         <v>-23</v>
       </c>
-      <c r="AB34" s="15" t="n">
-        <v>-37</v>
-      </c>
-      <c r="AC34" s="15" t="n">
-        <v>-19</v>
-      </c>
-      <c r="AD34" s="15" t="n">
-        <v>-35</v>
-      </c>
-      <c r="AE34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="15" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AG34" s="15" t="n">
-        <v>-18</v>
-      </c>
-      <c r="AH34" s="15" t="n">
-        <v>-28</v>
-      </c>
-      <c r="AI34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="15" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AK34" s="15" t="n">
-        <v>-47</v>
-      </c>
-      <c r="AL34" s="15" t="n">
-        <v>-16</v>
-      </c>
-      <c r="AM34" s="15" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AN34" s="15" t="n">
-        <v>-27</v>
-      </c>
-      <c r="AO34" s="15" t="n">
-        <v>-16</v>
-      </c>
-      <c r="AP34" s="15" t="n">
-        <v>-59</v>
-      </c>
-      <c r="AQ34" s="15" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AR34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="15" t="n">
-        <v>-19</v>
-      </c>
-      <c r="AT34" s="15" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AU34" s="15" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AV34" s="15" t="n">
-        <v>-69</v>
-      </c>
-      <c r="AW34" s="15" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AX34" s="15" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AY34" s="15" t="n">
-        <v>-38</v>
-      </c>
       <c r="AZ34" s="15" t="n">
-        <v>-23</v>
+        <v>-36</v>
       </c>
       <c r="BA34" s="15" t="n">
-        <v>-36</v>
+        <v>-45</v>
       </c>
       <c r="BB34" s="15" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6045,106 +6045,106 @@
         <v>0</v>
       </c>
       <c r="U35" s="19" t="n">
-        <v>0</v>
+        <v>3878</v>
       </c>
       <c r="V35" s="19" t="n">
-        <v>3878</v>
+        <v>3625</v>
       </c>
       <c r="W35" s="19" t="n">
-        <v>3625</v>
+        <v>4098</v>
       </c>
       <c r="X35" s="19" t="n">
-        <v>4098</v>
+        <v>4139</v>
       </c>
       <c r="Y35" s="19" t="n">
-        <v>4139</v>
+        <v>4562</v>
       </c>
       <c r="Z35" s="19" t="n">
-        <v>4562</v>
+        <v>4698</v>
       </c>
       <c r="AA35" s="19" t="n">
-        <v>4698</v>
+        <v>4945</v>
       </c>
       <c r="AB35" s="19" t="n">
-        <v>4945</v>
+        <v>4854</v>
       </c>
       <c r="AC35" s="19" t="n">
-        <v>4854</v>
+        <v>4732</v>
       </c>
       <c r="AD35" s="19" t="n">
-        <v>4732</v>
+        <v>3117</v>
       </c>
       <c r="AE35" s="19" t="n">
-        <v>3117</v>
+        <v>3770</v>
       </c>
       <c r="AF35" s="19" t="n">
-        <v>3770</v>
+        <v>4527</v>
       </c>
       <c r="AG35" s="19" t="n">
-        <v>4527</v>
+        <v>4417</v>
       </c>
       <c r="AH35" s="19" t="n">
-        <v>4417</v>
+        <v>3876</v>
       </c>
       <c r="AI35" s="19" t="n">
-        <v>3876</v>
+        <v>4643</v>
       </c>
       <c r="AJ35" s="19" t="n">
-        <v>4643</v>
+        <v>4600</v>
       </c>
       <c r="AK35" s="19" t="n">
-        <v>4600</v>
+        <v>4635</v>
       </c>
       <c r="AL35" s="19" t="n">
+        <v>5110</v>
+      </c>
+      <c r="AM35" s="19" t="n">
+        <v>4647</v>
+      </c>
+      <c r="AN35" s="19" t="n">
         <v>4635</v>
       </c>
-      <c r="AM35" s="19" t="n">
-        <v>5110</v>
-      </c>
-      <c r="AN35" s="19" t="n">
-        <v>4647</v>
-      </c>
       <c r="AO35" s="19" t="n">
-        <v>4635</v>
+        <v>4289</v>
       </c>
       <c r="AP35" s="19" t="n">
-        <v>4289</v>
+        <v>3640</v>
       </c>
       <c r="AQ35" s="19" t="n">
-        <v>3640</v>
+        <v>4665</v>
       </c>
       <c r="AR35" s="19" t="n">
-        <v>4665</v>
+        <v>5241</v>
       </c>
       <c r="AS35" s="19" t="n">
-        <v>5241</v>
+        <v>5217</v>
       </c>
       <c r="AT35" s="19" t="n">
-        <v>5217</v>
+        <v>4775</v>
       </c>
       <c r="AU35" s="19" t="n">
-        <v>4775</v>
+        <v>5524</v>
       </c>
       <c r="AV35" s="19" t="n">
-        <v>5524</v>
+        <v>5149</v>
       </c>
       <c r="AW35" s="19" t="n">
-        <v>5149</v>
+        <v>5760</v>
       </c>
       <c r="AX35" s="19" t="n">
-        <v>5760</v>
+        <v>5689</v>
       </c>
       <c r="AY35" s="19" t="n">
-        <v>5689</v>
+        <v>6125</v>
       </c>
       <c r="AZ35" s="19" t="n">
-        <v>6125</v>
+        <v>6338</v>
       </c>
       <c r="BA35" s="19" t="n">
-        <v>6338</v>
+        <v>5274</v>
       </c>
       <c r="BB35" s="19" t="n">
-        <v>5274</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6637,107 +6637,107 @@
       <c r="T42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U42" s="13" t="s">
-        <v>58</v>
+      <c r="U42" s="13" t="n">
+        <v>332307</v>
       </c>
       <c r="V42" s="13" t="n">
-        <v>332307</v>
+        <v>262380</v>
       </c>
       <c r="W42" s="13" t="n">
-        <v>262380</v>
+        <v>354760</v>
       </c>
       <c r="X42" s="13" t="n">
-        <v>354760</v>
+        <v>404875</v>
       </c>
       <c r="Y42" s="13" t="n">
-        <v>404875</v>
+        <v>475935</v>
       </c>
       <c r="Z42" s="13" t="n">
-        <v>475935</v>
+        <v>577975</v>
       </c>
       <c r="AA42" s="13" t="n">
-        <v>577975</v>
+        <v>555819</v>
       </c>
       <c r="AB42" s="13" t="n">
-        <v>555819</v>
+        <v>740942</v>
       </c>
       <c r="AC42" s="13" t="n">
-        <v>740942</v>
+        <v>669384</v>
       </c>
       <c r="AD42" s="13" t="n">
-        <v>669384</v>
+        <v>455141</v>
       </c>
       <c r="AE42" s="13" t="n">
-        <v>455141</v>
+        <v>519271</v>
       </c>
       <c r="AF42" s="13" t="n">
-        <v>519271</v>
+        <v>705987</v>
       </c>
       <c r="AG42" s="13" t="n">
-        <v>705987</v>
+        <v>710027</v>
       </c>
       <c r="AH42" s="13" t="n">
-        <v>710027</v>
+        <v>743082</v>
       </c>
       <c r="AI42" s="13" t="n">
-        <v>743082</v>
+        <v>959657</v>
       </c>
       <c r="AJ42" s="13" t="n">
-        <v>959657</v>
+        <v>903994</v>
       </c>
       <c r="AK42" s="13" t="n">
-        <v>903994</v>
+        <v>921980</v>
       </c>
       <c r="AL42" s="13" t="n">
-        <v>921980</v>
+        <v>1085802</v>
       </c>
       <c r="AM42" s="13" t="n">
-        <v>1085802</v>
+        <v>971670</v>
       </c>
       <c r="AN42" s="13" t="n">
-        <v>971670</v>
+        <v>915239</v>
       </c>
       <c r="AO42" s="13" t="n">
-        <v>915239</v>
+        <v>1003798</v>
       </c>
       <c r="AP42" s="13" t="n">
-        <v>1003798</v>
+        <v>958967</v>
       </c>
       <c r="AQ42" s="13" t="n">
-        <v>958967</v>
+        <v>1226157</v>
       </c>
       <c r="AR42" s="13" t="n">
-        <v>1226157</v>
+        <v>1396470</v>
       </c>
       <c r="AS42" s="13" t="n">
-        <v>1396470</v>
+        <v>1399423</v>
       </c>
       <c r="AT42" s="13" t="n">
-        <v>1399423</v>
+        <v>1619493</v>
       </c>
       <c r="AU42" s="13" t="n">
-        <v>1619493</v>
+        <v>2019537</v>
       </c>
       <c r="AV42" s="13" t="n">
-        <v>2019537</v>
+        <v>1721229</v>
       </c>
       <c r="AW42" s="13" t="n">
-        <v>1721229</v>
+        <v>2013904</v>
       </c>
       <c r="AX42" s="13" t="n">
-        <v>2013904</v>
+        <v>1994819</v>
       </c>
       <c r="AY42" s="13" t="n">
-        <v>1994819</v>
+        <v>2102667</v>
       </c>
       <c r="AZ42" s="13" t="n">
-        <v>2102667</v>
+        <v>2180291</v>
       </c>
       <c r="BA42" s="13" t="n">
-        <v>2180291</v>
+        <v>1853089</v>
       </c>
       <c r="BB42" s="13" t="n">
-        <v>1853089</v>
+        <v>1611834</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6795,106 +6795,106 @@
         <v>0</v>
       </c>
       <c r="U43" s="15" t="n">
-        <v>0</v>
+        <v>332307</v>
       </c>
       <c r="V43" s="15" t="n">
-        <v>332307</v>
+        <v>262380</v>
       </c>
       <c r="W43" s="15" t="n">
-        <v>262380</v>
+        <v>354760</v>
       </c>
       <c r="X43" s="15" t="n">
-        <v>354760</v>
+        <v>404875</v>
       </c>
       <c r="Y43" s="15" t="n">
-        <v>404875</v>
+        <v>475935</v>
       </c>
       <c r="Z43" s="15" t="n">
-        <v>475935</v>
+        <v>577975</v>
       </c>
       <c r="AA43" s="15" t="n">
-        <v>577975</v>
+        <v>555819</v>
       </c>
       <c r="AB43" s="15" t="n">
-        <v>555819</v>
+        <v>740942</v>
       </c>
       <c r="AC43" s="15" t="n">
-        <v>740942</v>
+        <v>669384</v>
       </c>
       <c r="AD43" s="15" t="n">
-        <v>669384</v>
+        <v>455141</v>
       </c>
       <c r="AE43" s="15" t="n">
-        <v>455141</v>
+        <v>519271</v>
       </c>
       <c r="AF43" s="15" t="n">
-        <v>519271</v>
+        <v>705987</v>
       </c>
       <c r="AG43" s="15" t="n">
-        <v>705987</v>
+        <v>710027</v>
       </c>
       <c r="AH43" s="15" t="n">
-        <v>710027</v>
+        <v>743082</v>
       </c>
       <c r="AI43" s="15" t="n">
-        <v>743082</v>
+        <v>959657</v>
       </c>
       <c r="AJ43" s="15" t="n">
-        <v>959657</v>
+        <v>903994</v>
       </c>
       <c r="AK43" s="15" t="n">
-        <v>903994</v>
+        <v>921980</v>
       </c>
       <c r="AL43" s="15" t="n">
-        <v>921980</v>
+        <v>1085802</v>
       </c>
       <c r="AM43" s="15" t="n">
-        <v>1085802</v>
+        <v>971670</v>
       </c>
       <c r="AN43" s="15" t="n">
-        <v>971670</v>
+        <v>915239</v>
       </c>
       <c r="AO43" s="15" t="n">
-        <v>915239</v>
+        <v>1003798</v>
       </c>
       <c r="AP43" s="15" t="n">
-        <v>1003798</v>
+        <v>958967</v>
       </c>
       <c r="AQ43" s="15" t="n">
-        <v>958967</v>
+        <v>1226157</v>
       </c>
       <c r="AR43" s="15" t="n">
-        <v>1226157</v>
+        <v>1396470</v>
       </c>
       <c r="AS43" s="15" t="n">
-        <v>1396470</v>
+        <v>1399423</v>
       </c>
       <c r="AT43" s="15" t="n">
-        <v>1399423</v>
+        <v>1619493</v>
       </c>
       <c r="AU43" s="15" t="n">
-        <v>1619493</v>
+        <v>2019537</v>
       </c>
       <c r="AV43" s="15" t="n">
-        <v>2019537</v>
+        <v>1721229</v>
       </c>
       <c r="AW43" s="15" t="n">
-        <v>1721229</v>
+        <v>2013904</v>
       </c>
       <c r="AX43" s="15" t="n">
-        <v>2013904</v>
+        <v>1994819</v>
       </c>
       <c r="AY43" s="15" t="n">
-        <v>1994819</v>
+        <v>2102667</v>
       </c>
       <c r="AZ43" s="15" t="n">
-        <v>2102667</v>
+        <v>2180291</v>
       </c>
       <c r="BA43" s="15" t="n">
-        <v>2180291</v>
+        <v>1853089</v>
       </c>
       <c r="BB43" s="15" t="n">
-        <v>1853089</v>
+        <v>1611834</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7010,107 +7010,107 @@
       <c r="T45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="13" t="s">
-        <v>58</v>
+      <c r="U45" s="13" t="n">
+        <v>102621</v>
       </c>
       <c r="V45" s="13" t="n">
-        <v>102621</v>
+        <v>179845</v>
       </c>
       <c r="W45" s="13" t="n">
-        <v>179845</v>
+        <v>203152</v>
       </c>
       <c r="X45" s="13" t="n">
-        <v>203152</v>
+        <v>253194</v>
       </c>
       <c r="Y45" s="13" t="n">
-        <v>253194</v>
+        <v>388238</v>
       </c>
       <c r="Z45" s="13" t="n">
-        <v>388238</v>
+        <v>189118</v>
       </c>
       <c r="AA45" s="13" t="n">
-        <v>189118</v>
+        <v>329244</v>
       </c>
       <c r="AB45" s="13" t="n">
-        <v>329244</v>
+        <v>347740</v>
       </c>
       <c r="AC45" s="13" t="n">
-        <v>347740</v>
+        <v>414656</v>
       </c>
       <c r="AD45" s="13" t="n">
-        <v>414656</v>
+        <v>240967</v>
       </c>
       <c r="AE45" s="13" t="n">
-        <v>240967</v>
+        <v>315480</v>
       </c>
       <c r="AF45" s="13" t="n">
-        <v>315480</v>
+        <v>290880</v>
       </c>
       <c r="AG45" s="13" t="n">
-        <v>290880</v>
+        <v>254892</v>
       </c>
       <c r="AH45" s="13" t="n">
-        <v>254892</v>
+        <v>233343</v>
       </c>
       <c r="AI45" s="13" t="n">
-        <v>233343</v>
+        <v>218264</v>
       </c>
       <c r="AJ45" s="13" t="n">
-        <v>218264</v>
+        <v>303219</v>
       </c>
       <c r="AK45" s="13" t="n">
-        <v>303219</v>
+        <v>283452</v>
       </c>
       <c r="AL45" s="13" t="n">
-        <v>283452</v>
+        <v>239102</v>
       </c>
       <c r="AM45" s="13" t="n">
-        <v>239102</v>
+        <v>271290</v>
       </c>
       <c r="AN45" s="13" t="n">
-        <v>271290</v>
+        <v>290042</v>
       </c>
       <c r="AO45" s="13" t="n">
-        <v>290042</v>
+        <v>333032</v>
       </c>
       <c r="AP45" s="13" t="n">
-        <v>333032</v>
+        <v>179035</v>
       </c>
       <c r="AQ45" s="13" t="n">
-        <v>179035</v>
+        <v>263209</v>
       </c>
       <c r="AR45" s="13" t="n">
-        <v>263209</v>
+        <v>304568</v>
       </c>
       <c r="AS45" s="13" t="n">
-        <v>304568</v>
+        <v>295672</v>
       </c>
       <c r="AT45" s="13" t="n">
-        <v>295672</v>
+        <v>275363</v>
       </c>
       <c r="AU45" s="13" t="n">
-        <v>275363</v>
+        <v>266119</v>
       </c>
       <c r="AV45" s="13" t="n">
-        <v>266119</v>
+        <v>342611</v>
       </c>
       <c r="AW45" s="13" t="n">
-        <v>342611</v>
+        <v>271513</v>
       </c>
       <c r="AX45" s="13" t="n">
-        <v>271513</v>
+        <v>317241</v>
       </c>
       <c r="AY45" s="13" t="n">
-        <v>317241</v>
+        <v>407634</v>
       </c>
       <c r="AZ45" s="13" t="n">
-        <v>407634</v>
+        <v>477468</v>
       </c>
       <c r="BA45" s="13" t="n">
-        <v>477468</v>
+        <v>493691</v>
       </c>
       <c r="BB45" s="13" t="n">
-        <v>493691</v>
+        <v>364223</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7168,106 +7168,106 @@
         <v>0</v>
       </c>
       <c r="U46" s="15" t="n">
-        <v>0</v>
+        <v>102621</v>
       </c>
       <c r="V46" s="15" t="n">
-        <v>102621</v>
+        <v>179845</v>
       </c>
       <c r="W46" s="15" t="n">
-        <v>179845</v>
+        <v>203152</v>
       </c>
       <c r="X46" s="15" t="n">
-        <v>203152</v>
+        <v>253194</v>
       </c>
       <c r="Y46" s="15" t="n">
-        <v>253194</v>
+        <v>388238</v>
       </c>
       <c r="Z46" s="15" t="n">
-        <v>388238</v>
+        <v>189118</v>
       </c>
       <c r="AA46" s="15" t="n">
-        <v>189118</v>
+        <v>329244</v>
       </c>
       <c r="AB46" s="15" t="n">
-        <v>329244</v>
+        <v>347740</v>
       </c>
       <c r="AC46" s="15" t="n">
-        <v>347740</v>
+        <v>414656</v>
       </c>
       <c r="AD46" s="15" t="n">
-        <v>414656</v>
+        <v>240967</v>
       </c>
       <c r="AE46" s="15" t="n">
-        <v>240967</v>
+        <v>315480</v>
       </c>
       <c r="AF46" s="15" t="n">
-        <v>315480</v>
+        <v>290880</v>
       </c>
       <c r="AG46" s="15" t="n">
-        <v>290880</v>
+        <v>254892</v>
       </c>
       <c r="AH46" s="15" t="n">
-        <v>254892</v>
+        <v>233343</v>
       </c>
       <c r="AI46" s="15" t="n">
-        <v>233343</v>
+        <v>218264</v>
       </c>
       <c r="AJ46" s="15" t="n">
-        <v>218264</v>
+        <v>303219</v>
       </c>
       <c r="AK46" s="15" t="n">
-        <v>303219</v>
+        <v>283452</v>
       </c>
       <c r="AL46" s="15" t="n">
-        <v>283452</v>
+        <v>239102</v>
       </c>
       <c r="AM46" s="15" t="n">
-        <v>239102</v>
+        <v>271290</v>
       </c>
       <c r="AN46" s="15" t="n">
-        <v>271290</v>
+        <v>290042</v>
       </c>
       <c r="AO46" s="15" t="n">
-        <v>290042</v>
+        <v>333032</v>
       </c>
       <c r="AP46" s="15" t="n">
-        <v>333032</v>
+        <v>179035</v>
       </c>
       <c r="AQ46" s="15" t="n">
-        <v>179035</v>
+        <v>263209</v>
       </c>
       <c r="AR46" s="15" t="n">
-        <v>263209</v>
+        <v>304568</v>
       </c>
       <c r="AS46" s="15" t="n">
-        <v>304568</v>
+        <v>295672</v>
       </c>
       <c r="AT46" s="15" t="n">
-        <v>295672</v>
+        <v>275363</v>
       </c>
       <c r="AU46" s="15" t="n">
-        <v>275363</v>
+        <v>266119</v>
       </c>
       <c r="AV46" s="15" t="n">
-        <v>266119</v>
+        <v>342611</v>
       </c>
       <c r="AW46" s="15" t="n">
-        <v>342611</v>
+        <v>271513</v>
       </c>
       <c r="AX46" s="15" t="n">
-        <v>271513</v>
+        <v>317241</v>
       </c>
       <c r="AY46" s="15" t="n">
-        <v>317241</v>
+        <v>407634</v>
       </c>
       <c r="AZ46" s="15" t="n">
-        <v>407634</v>
+        <v>477468</v>
       </c>
       <c r="BA46" s="15" t="n">
-        <v>477468</v>
+        <v>493691</v>
       </c>
       <c r="BB46" s="15" t="n">
-        <v>493691</v>
+        <v>364223</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7383,8 +7383,8 @@
       <c r="T48" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="19" t="s">
-        <v>58</v>
+      <c r="U48" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V48" s="20" t="n">
         <v>0</v>
@@ -7599,107 +7599,107 @@
       <c r="T50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="13" t="s">
-        <v>58</v>
+      <c r="U50" s="13" t="n">
+        <v>-2568</v>
       </c>
       <c r="V50" s="13" t="n">
-        <v>-2568</v>
+        <v>-1463</v>
       </c>
       <c r="W50" s="13" t="n">
-        <v>-1463</v>
+        <v>-3581</v>
       </c>
       <c r="X50" s="13" t="n">
-        <v>-3581</v>
+        <v>-1750</v>
       </c>
       <c r="Y50" s="13" t="n">
-        <v>-1750</v>
+        <v>-4625</v>
       </c>
       <c r="Z50" s="13" t="n">
-        <v>-4625</v>
+        <v>-3214</v>
       </c>
       <c r="AA50" s="13" t="n">
-        <v>-3214</v>
+        <v>-4166</v>
       </c>
       <c r="AB50" s="13" t="n">
-        <v>-4166</v>
+        <v>-3440</v>
       </c>
       <c r="AC50" s="13" t="n">
-        <v>-3440</v>
-      </c>
-      <c r="AD50" s="13" t="n">
         <v>-7146</v>
       </c>
-      <c r="AE50" s="13" t="s">
-        <v>58</v>
+      <c r="AD50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE50" s="13" t="n">
+        <v>-1440</v>
       </c>
       <c r="AF50" s="13" t="n">
-        <v>-1440</v>
+        <v>-3656</v>
       </c>
       <c r="AG50" s="13" t="n">
-        <v>-3656</v>
+        <v>-5163</v>
       </c>
       <c r="AH50" s="13" t="n">
-        <v>-5163</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="13" t="n">
-        <v>0</v>
+        <v>-2943</v>
       </c>
       <c r="AJ50" s="13" t="n">
-        <v>-2943</v>
+        <v>-11229</v>
       </c>
       <c r="AK50" s="13" t="n">
-        <v>-11229</v>
+        <v>-2957</v>
       </c>
       <c r="AL50" s="13" t="n">
-        <v>-2957</v>
+        <v>-8405</v>
       </c>
       <c r="AM50" s="13" t="n">
-        <v>-8405</v>
+        <v>-6996</v>
       </c>
       <c r="AN50" s="13" t="n">
-        <v>-6996</v>
+        <v>-5015</v>
       </c>
       <c r="AO50" s="13" t="n">
-        <v>-5015</v>
+        <v>-12778</v>
       </c>
       <c r="AP50" s="13" t="n">
-        <v>-12778</v>
+        <v>-664</v>
       </c>
       <c r="AQ50" s="13" t="n">
-        <v>-664</v>
+        <v>0</v>
       </c>
       <c r="AR50" s="13" t="n">
-        <v>0</v>
+        <v>-6110</v>
       </c>
       <c r="AS50" s="13" t="n">
-        <v>-6110</v>
+        <v>-3865</v>
       </c>
       <c r="AT50" s="13" t="n">
-        <v>-3865</v>
+        <v>-1784</v>
       </c>
       <c r="AU50" s="13" t="n">
-        <v>-1784</v>
+        <v>-10395</v>
       </c>
       <c r="AV50" s="13" t="n">
-        <v>-10395</v>
+        <v>-3659</v>
       </c>
       <c r="AW50" s="13" t="n">
-        <v>-3659</v>
+        <v>-2429</v>
       </c>
       <c r="AX50" s="13" t="n">
-        <v>-2429</v>
+        <v>-12098</v>
       </c>
       <c r="AY50" s="13" t="n">
-        <v>-12098</v>
+        <v>-6705</v>
       </c>
       <c r="AZ50" s="13" t="n">
-        <v>-6705</v>
+        <v>-12051</v>
       </c>
       <c r="BA50" s="13" t="n">
-        <v>-12051</v>
+        <v>-22978</v>
       </c>
       <c r="BB50" s="13" t="n">
-        <v>-22978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7758,107 +7758,107 @@
       <c r="T51" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="15" t="s">
-        <v>58</v>
+      <c r="U51" s="21" t="n">
+        <v>-2568</v>
       </c>
       <c r="V51" s="21" t="n">
-        <v>-2568</v>
+        <v>-1463</v>
       </c>
       <c r="W51" s="21" t="n">
-        <v>-1463</v>
+        <v>-3581</v>
       </c>
       <c r="X51" s="21" t="n">
-        <v>-3581</v>
+        <v>-1750</v>
       </c>
       <c r="Y51" s="21" t="n">
-        <v>-1750</v>
+        <v>-4625</v>
       </c>
       <c r="Z51" s="21" t="n">
-        <v>-4625</v>
+        <v>-3214</v>
       </c>
       <c r="AA51" s="21" t="n">
-        <v>-3214</v>
+        <v>-4166</v>
       </c>
       <c r="AB51" s="21" t="n">
-        <v>-4166</v>
+        <v>-3440</v>
       </c>
       <c r="AC51" s="21" t="n">
-        <v>-3440</v>
+        <v>-7146</v>
       </c>
       <c r="AD51" s="21" t="n">
-        <v>-7146</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="21" t="n">
-        <v>0</v>
+        <v>-1440</v>
       </c>
       <c r="AF51" s="21" t="n">
-        <v>-1440</v>
+        <v>-3656</v>
       </c>
       <c r="AG51" s="21" t="n">
-        <v>-3656</v>
+        <v>-5163</v>
       </c>
       <c r="AH51" s="21" t="n">
-        <v>-5163</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="21" t="n">
-        <v>0</v>
+        <v>-2943</v>
       </c>
       <c r="AJ51" s="21" t="n">
-        <v>-2943</v>
+        <v>-11229</v>
       </c>
       <c r="AK51" s="21" t="n">
-        <v>-11229</v>
+        <v>-2957</v>
       </c>
       <c r="AL51" s="21" t="n">
-        <v>-2957</v>
+        <v>-8405</v>
       </c>
       <c r="AM51" s="21" t="n">
-        <v>-8405</v>
+        <v>-6996</v>
       </c>
       <c r="AN51" s="21" t="n">
-        <v>-6996</v>
+        <v>-5015</v>
       </c>
       <c r="AO51" s="21" t="n">
-        <v>-5015</v>
+        <v>-12778</v>
       </c>
       <c r="AP51" s="21" t="n">
-        <v>-12778</v>
+        <v>-664</v>
       </c>
       <c r="AQ51" s="21" t="n">
-        <v>-664</v>
+        <v>0</v>
       </c>
       <c r="AR51" s="21" t="n">
-        <v>0</v>
+        <v>-6110</v>
       </c>
       <c r="AS51" s="21" t="n">
-        <v>-6110</v>
+        <v>-3865</v>
       </c>
       <c r="AT51" s="21" t="n">
-        <v>-3865</v>
+        <v>-1784</v>
       </c>
       <c r="AU51" s="21" t="n">
-        <v>-1784</v>
+        <v>-10395</v>
       </c>
       <c r="AV51" s="21" t="n">
-        <v>-10395</v>
+        <v>-3659</v>
       </c>
       <c r="AW51" s="21" t="n">
-        <v>-3659</v>
+        <v>-2429</v>
       </c>
       <c r="AX51" s="21" t="n">
-        <v>-2429</v>
+        <v>-12098</v>
       </c>
       <c r="AY51" s="21" t="n">
-        <v>-12098</v>
+        <v>-6705</v>
       </c>
       <c r="AZ51" s="21" t="n">
-        <v>-6705</v>
+        <v>-12051</v>
       </c>
       <c r="BA51" s="21" t="n">
-        <v>-12051</v>
+        <v>-22978</v>
       </c>
       <c r="BB51" s="21" t="n">
-        <v>-22978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7974,8 +7974,8 @@
       <c r="T53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+      <c r="U53" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V53" s="13" t="n">
         <v>0</v>
@@ -8132,106 +8132,106 @@
         <v>0</v>
       </c>
       <c r="U54" s="21" t="n">
-        <v>0</v>
+        <v>432360</v>
       </c>
       <c r="V54" s="21" t="n">
-        <v>432360</v>
+        <v>440762</v>
       </c>
       <c r="W54" s="21" t="n">
-        <v>440762</v>
+        <v>554331</v>
       </c>
       <c r="X54" s="21" t="n">
-        <v>554331</v>
+        <v>656319</v>
       </c>
       <c r="Y54" s="21" t="n">
-        <v>656319</v>
+        <v>859548</v>
       </c>
       <c r="Z54" s="21" t="n">
-        <v>859548</v>
+        <v>763879</v>
       </c>
       <c r="AA54" s="21" t="n">
-        <v>763879</v>
+        <v>880897</v>
       </c>
       <c r="AB54" s="21" t="n">
-        <v>880897</v>
+        <v>1085242</v>
       </c>
       <c r="AC54" s="21" t="n">
-        <v>1085242</v>
+        <v>1076894</v>
       </c>
       <c r="AD54" s="21" t="n">
-        <v>1076894</v>
+        <v>696108</v>
       </c>
       <c r="AE54" s="21" t="n">
-        <v>696108</v>
+        <v>833311</v>
       </c>
       <c r="AF54" s="21" t="n">
-        <v>833311</v>
+        <v>993211</v>
       </c>
       <c r="AG54" s="21" t="n">
-        <v>993211</v>
+        <v>959756</v>
       </c>
       <c r="AH54" s="21" t="n">
-        <v>959756</v>
+        <v>976425</v>
       </c>
       <c r="AI54" s="21" t="n">
-        <v>976425</v>
+        <v>1174978</v>
       </c>
       <c r="AJ54" s="21" t="n">
-        <v>1174978</v>
+        <v>1195984</v>
       </c>
       <c r="AK54" s="21" t="n">
-        <v>1195984</v>
+        <v>1202475</v>
       </c>
       <c r="AL54" s="21" t="n">
-        <v>1202475</v>
+        <v>1316499</v>
       </c>
       <c r="AM54" s="21" t="n">
-        <v>1316499</v>
+        <v>1235964</v>
       </c>
       <c r="AN54" s="21" t="n">
-        <v>1235964</v>
+        <v>1200266</v>
       </c>
       <c r="AO54" s="21" t="n">
-        <v>1200266</v>
+        <v>1324052</v>
       </c>
       <c r="AP54" s="21" t="n">
-        <v>1324052</v>
+        <v>1137338</v>
       </c>
       <c r="AQ54" s="21" t="n">
-        <v>1137338</v>
+        <v>1489366</v>
       </c>
       <c r="AR54" s="21" t="n">
-        <v>1489366</v>
+        <v>1694928</v>
       </c>
       <c r="AS54" s="21" t="n">
-        <v>1694928</v>
+        <v>1691230</v>
       </c>
       <c r="AT54" s="21" t="n">
-        <v>1691230</v>
+        <v>1893072</v>
       </c>
       <c r="AU54" s="21" t="n">
-        <v>1893072</v>
+        <v>2275261</v>
       </c>
       <c r="AV54" s="21" t="n">
-        <v>2275261</v>
+        <v>2060181</v>
       </c>
       <c r="AW54" s="21" t="n">
-        <v>2060181</v>
+        <v>2282988</v>
       </c>
       <c r="AX54" s="21" t="n">
-        <v>2282988</v>
+        <v>2299962</v>
       </c>
       <c r="AY54" s="21" t="n">
-        <v>2299962</v>
+        <v>2503596</v>
       </c>
       <c r="AZ54" s="21" t="n">
-        <v>2503596</v>
+        <v>2645708</v>
       </c>
       <c r="BA54" s="21" t="n">
-        <v>2645708</v>
+        <v>2323802</v>
       </c>
       <c r="BB54" s="21" t="n">
-        <v>2323802</v>
+        <v>1976057</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8724,107 +8724,107 @@
       <c r="T61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="13" t="s">
-        <v>58</v>
+      <c r="U61" s="13" t="n">
+        <v>98724599</v>
       </c>
       <c r="V61" s="13" t="n">
-        <v>98724599</v>
+        <v>89886948</v>
       </c>
       <c r="W61" s="13" t="n">
-        <v>89886948</v>
+        <v>103217923</v>
       </c>
       <c r="X61" s="13" t="n">
-        <v>103217923</v>
+        <v>123475145</v>
       </c>
       <c r="Y61" s="13" t="n">
-        <v>123475145</v>
+        <v>141436850</v>
       </c>
       <c r="Z61" s="13" t="n">
-        <v>141436850</v>
+        <v>140387418</v>
       </c>
       <c r="AA61" s="13" t="n">
-        <v>140387418</v>
+        <v>140110663</v>
       </c>
       <c r="AB61" s="13" t="n">
-        <v>140110663</v>
+        <v>197689968</v>
       </c>
       <c r="AC61" s="13" t="n">
-        <v>197689968</v>
+        <v>203089806</v>
       </c>
       <c r="AD61" s="13" t="n">
-        <v>203089806</v>
+        <v>199974077</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>199974077</v>
+        <v>200413354</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>200413354</v>
+        <v>205348168</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>205348168</v>
+        <v>203387854</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>203387854</v>
+        <v>241574122</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>241574122</v>
+        <v>244311864</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>244311864</v>
+        <v>249171444</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>249171444</v>
+        <v>247179625</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>247179625</v>
+        <v>248751890</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>248751890</v>
+        <v>252907340</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>252907340</v>
+        <v>244389586</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>244389586</v>
+        <v>305756320</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>305756320</v>
+        <v>311352922</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>311352922</v>
+        <v>313755629</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>313755629</v>
+        <v>316301246</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>316301246</v>
+        <v>316253785</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>316253785</v>
+        <v>399578831</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>399578831</v>
+        <v>415799259</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>415799259</v>
+        <v>400285814</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>400285814</v>
+        <v>397926102</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>397926102</v>
+        <v>399203322</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>399203322</v>
+        <v>401272328</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>401272328</v>
+        <v>407226560</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>407226560</v>
+        <v>425606109</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>425606109</v>
+        <v>409823036</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8940,107 +8940,107 @@
       <c r="T63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="13" t="s">
-        <v>58</v>
+      <c r="U63" s="13" t="n">
+        <v>190391466</v>
       </c>
       <c r="V63" s="13" t="n">
-        <v>190391466</v>
+        <v>249438280</v>
       </c>
       <c r="W63" s="13" t="n">
-        <v>249438280</v>
+        <v>295708879</v>
       </c>
       <c r="X63" s="13" t="n">
-        <v>295708879</v>
+        <v>289034247</v>
       </c>
       <c r="Y63" s="13" t="n">
-        <v>289034247</v>
+        <v>315897478</v>
       </c>
       <c r="Z63" s="13" t="n">
-        <v>315897478</v>
+        <v>313109272</v>
       </c>
       <c r="AA63" s="13" t="n">
-        <v>313109272</v>
+        <v>324378325</v>
       </c>
       <c r="AB63" s="13" t="n">
-        <v>324378325</v>
+        <v>309102222</v>
       </c>
       <c r="AC63" s="13" t="n">
-        <v>309102222</v>
+        <v>281887152</v>
       </c>
       <c r="AD63" s="13" t="n">
-        <v>281887152</v>
+        <v>286524376</v>
       </c>
       <c r="AE63" s="13" t="n">
-        <v>286524376</v>
+        <v>265555556</v>
       </c>
       <c r="AF63" s="13" t="n">
-        <v>265555556</v>
+        <v>262764228</v>
       </c>
       <c r="AG63" s="13" t="n">
-        <v>262764228</v>
+        <v>267182390</v>
       </c>
       <c r="AH63" s="13" t="n">
-        <v>267182390</v>
+        <v>291678750</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>291678750</v>
+        <v>296957823</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>296957823</v>
+        <v>297565260</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>297565260</v>
+        <v>307765472</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>307765472</v>
+        <v>308121134</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>308121134</v>
+        <v>326069712</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>326069712</v>
+        <v>320134658</v>
       </c>
       <c r="AO63" s="13" t="n">
-        <v>320134658</v>
+        <v>312706103</v>
       </c>
       <c r="AP63" s="13" t="n">
-        <v>312706103</v>
+        <v>318567616</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>318567616</v>
+        <v>347700132</v>
       </c>
       <c r="AR63" s="13" t="n">
-        <v>347700132</v>
+        <v>360435503</v>
       </c>
       <c r="AS63" s="13" t="n">
-        <v>360435503</v>
+        <v>367751244</v>
       </c>
       <c r="AT63" s="13" t="n">
-        <v>367751244</v>
+        <v>378766162</v>
       </c>
       <c r="AU63" s="13" t="n">
-        <v>378766162</v>
+        <v>361574728</v>
       </c>
       <c r="AV63" s="13" t="n">
-        <v>361574728</v>
+        <v>399779463</v>
       </c>
       <c r="AW63" s="13" t="n">
-        <v>399779463</v>
+        <v>383492938</v>
       </c>
       <c r="AX63" s="13" t="n">
-        <v>383492938</v>
+        <v>434576712</v>
       </c>
       <c r="AY63" s="13" t="n">
-        <v>434576712</v>
+        <v>448936123</v>
       </c>
       <c r="AZ63" s="13" t="n">
-        <v>448936123</v>
+        <v>468105882</v>
       </c>
       <c r="BA63" s="13" t="n">
-        <v>468105882</v>
+        <v>511596891</v>
       </c>
       <c r="BB63" s="13" t="n">
-        <v>511596891</v>
+        <v>555217988</v>
       </c>
     </row>
   </sheetData>
